--- a/2021/FSARankings2021DisplayV2.xlsx
+++ b/2021/FSARankings2021DisplayV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57709230-B0AD-40AF-BF9F-D8354AB95ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3C5AF-3BEE-4B58-AC2B-294A8A6BC210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2F090B5A-58A0-4679-AF74-9DED37E728B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2F090B5A-58A0-4679-AF74-9DED37E728B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Open &amp; Veteran 2021 Ranking" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -764,20 +764,3296 @@
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="660">
+  <dxfs count="1320">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="0.0"/>
     </dxf>
@@ -4068,7 +7344,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FSA" refreshedDate="44269.71634363426" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="436" xr:uid="{316739D0-5A1B-4D88-BCC0-BF22C1D2B14E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rob Thomas" refreshedDate="44270.42212048611" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="436" xr:uid="{316739D0-5A1B-4D88-BCC0-BF22C1D2B14E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
@@ -4158,8 +7434,8 @@
         <s v="Wells"/>
         <s v="Fior"/>
         <s v="Brammer"/>
+        <s v="Grasby"/>
         <s v="Arcayo"/>
-        <s v="Grasby"/>
         <s v="Kennedy"/>
         <s v="Walters"/>
         <s v="Hyde"/>
@@ -4261,14 +7537,14 @@
         <s v="Coraine"/>
         <s v="Samuel"/>
         <s v="Hugo"/>
+        <s v="Tembo"/>
         <s v="Facundo"/>
-        <s v="Tembo"/>
         <s v="Hamish"/>
         <s v="Emma"/>
         <s v="Kate"/>
         <s v="Max"/>
+        <s v="Kifaru"/>
         <s v="Matthew"/>
-        <s v="Kifaru"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Rank" numFmtId="0">
@@ -11416,7 +14692,7 @@
     <x v="12"/>
     <x v="12"/>
     <x v="8"/>
-    <x v="7"/>
+    <x v="10"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11426,82 +14702,82 @@
     <x v="0"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="3"/>
-    <n v="22.400000000000002"/>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="92"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="23"/>
   </r>
   <r>
     <x v="65"/>
     <x v="74"/>
     <x v="4"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="93"/>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="7"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="3"/>
-    <n v="14.4"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <x v="92"/>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-    <n v="9.6000000000000014"/>
+    <x v="0"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="81"/>
     <x v="67"/>
     <x v="12"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="7"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-    <n v="9.6000000000000014"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="93"/>
-    <x v="10"/>
-    <x v="14"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="6"/>
-    <n v="9.2000000000000011"/>
+    <x v="0"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="66"/>
     <x v="75"/>
     <x v="4"/>
-    <x v="14"/>
+    <x v="8"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11511,8 +14787,8 @@
     <x v="3"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="6"/>
-    <n v="7.2"/>
+    <x v="4"/>
+    <n v="3.6"/>
   </r>
   <r>
     <x v="85"/>
@@ -11671,7 +14947,7 @@
     <x v="12"/>
     <x v="31"/>
     <x v="8"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11688,7 +14964,7 @@
     <x v="23"/>
     <x v="24"/>
     <x v="10"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11705,7 +14981,7 @@
     <x v="88"/>
     <x v="97"/>
     <x v="4"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11722,8 +14998,8 @@
     <x v="3"/>
     <x v="25"/>
     <x v="4"/>
-    <x v="17"/>
     <x v="15"/>
+    <x v="15"/>
     <x v="2"/>
     <x v="3"/>
     <x v="4"/>
@@ -11734,12 +15010,29 @@
     <x v="6"/>
     <x v="0"/>
     <n v="18"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="92"/>
+    <x v="9"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
   </r>
   <r>
     <x v="68"/>
     <x v="77"/>
     <x v="12"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11756,8 +15049,8 @@
     <x v="28"/>
     <x v="32"/>
     <x v="3"/>
-    <x v="17"/>
     <x v="15"/>
+    <x v="15"/>
     <x v="2"/>
     <x v="3"/>
     <x v="4"/>
@@ -11770,10 +15063,27 @@
     <n v="12"/>
   </r>
   <r>
+    <x v="83"/>
+    <x v="98"/>
+    <x v="13"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
     <x v="89"/>
-    <x v="98"/>
+    <x v="99"/>
     <x v="14"/>
-    <x v="17"/>
+    <x v="15"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11790,7 +15100,7 @@
     <x v="33"/>
     <x v="36"/>
     <x v="8"/>
-    <x v="7"/>
+    <x v="14"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11800,14 +15110,14 @@
     <x v="3"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="3"/>
-    <n v="22.400000000000002"/>
+    <x v="6"/>
+    <n v="11.200000000000001"/>
   </r>
   <r>
     <x v="32"/>
     <x v="35"/>
     <x v="10"/>
-    <x v="7"/>
+    <x v="14"/>
     <x v="15"/>
     <x v="2"/>
     <x v="3"/>
@@ -11817,48 +15127,14 @@
     <x v="1"/>
     <x v="1"/>
     <x v="8"/>
-    <x v="3"/>
-    <n v="18.400000000000002"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="93"/>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-    <n v="9.6000000000000014"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="99"/>
-    <x v="13"/>
-    <x v="7"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-    <n v="9.6000000000000014"/>
+    <x v="6"/>
+    <n v="9.2000000000000011"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C807EE97-4FCD-47D4-8DB6-23B875D86351}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C807EE97-4FCD-47D4-8DB6-23B875D86351}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:O87" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -11946,8 +15222,8 @@
         <item x="80"/>
         <item x="81"/>
         <item x="82"/>
+        <item x="84"/>
         <item x="83"/>
-        <item x="84"/>
         <item x="85"/>
         <item x="86"/>
         <item x="87"/>
@@ -12063,14 +15339,14 @@
         <item x="4"/>
         <item x="90"/>
         <item x="91"/>
+        <item x="93"/>
         <item x="92"/>
-        <item x="93"/>
         <item x="94"/>
         <item x="95"/>
         <item x="96"/>
         <item x="97"/>
+        <item x="99"/>
         <item x="98"/>
-        <item x="99"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -12635,7 +15911,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="659">
+    <format dxfId="1319">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12644,26 +15920,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="658">
+    <format dxfId="1318">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="657">
+    <format dxfId="1317">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="656">
+    <format dxfId="1316">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="655">
+    <format dxfId="1315">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="654">
+    <format dxfId="1314">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="653">
+    <format dxfId="1313">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -12671,7 +15947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="652">
+    <format dxfId="1312">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -12682,7 +15958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="651">
+    <format dxfId="1311">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -12700,7 +15976,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="650">
+    <format dxfId="1310">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -12730,7 +16006,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="649">
+    <format dxfId="1309">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -12755,7 +16031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="648">
+    <format dxfId="1308">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -12777,7 +16053,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="647">
+    <format dxfId="1307">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -12798,7 +16074,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="646">
+    <format dxfId="1306">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -12817,7 +16093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="645">
+    <format dxfId="1305">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -12833,7 +16109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="644">
+    <format dxfId="1304">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -12850,7 +16126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="643">
+    <format dxfId="1303">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -12874,7 +16150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="642">
+    <format dxfId="1302">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -12897,7 +16173,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="641">
+    <format dxfId="1301">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -12918,7 +16194,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="640">
+    <format dxfId="1300">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -12935,7 +16211,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="639">
+    <format dxfId="1299">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -12955,7 +16231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="638">
+    <format dxfId="1298">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -12975,7 +16251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="637">
+    <format dxfId="1297">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -12994,7 +16270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="636">
+    <format dxfId="1296">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13013,7 +16289,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="635">
+    <format dxfId="1295">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13032,7 +16308,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="634">
+    <format dxfId="1294">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13051,7 +16327,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="633">
+    <format dxfId="1293">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13070,7 +16346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="632">
+    <format dxfId="1292">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13089,7 +16365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="631">
+    <format dxfId="1291">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13108,7 +16384,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="630">
+    <format dxfId="1290">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13127,7 +16403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="629">
+    <format dxfId="1289">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13146,7 +16422,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="628">
+    <format dxfId="1288">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13165,7 +16441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="627">
+    <format dxfId="1287">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13184,7 +16460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="626">
+    <format dxfId="1286">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13203,7 +16479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="625">
+    <format dxfId="1285">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13222,7 +16498,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="624">
+    <format dxfId="1284">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13241,7 +16517,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="623">
+    <format dxfId="1283">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13260,7 +16536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="622">
+    <format dxfId="1282">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13279,7 +16555,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="621">
+    <format dxfId="1281">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13298,7 +16574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="620">
+    <format dxfId="1280">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13317,7 +16593,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="619">
+    <format dxfId="1279">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13336,7 +16612,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="618">
+    <format dxfId="1278">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13355,7 +16631,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="617">
+    <format dxfId="1277">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13374,7 +16650,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="616">
+    <format dxfId="1276">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13393,7 +16669,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="615">
+    <format dxfId="1275">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13412,7 +16688,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="614">
+    <format dxfId="1274">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13431,7 +16707,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="613">
+    <format dxfId="1273">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13450,7 +16726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="612">
+    <format dxfId="1272">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13469,7 +16745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="611">
+    <format dxfId="1271">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13488,7 +16764,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="610">
+    <format dxfId="1270">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -13508,7 +16784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="609">
+    <format dxfId="1269">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13527,7 +16803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="608">
+    <format dxfId="1268">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13546,7 +16822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="607">
+    <format dxfId="1267">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13565,7 +16841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="606">
+    <format dxfId="1266">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13584,7 +16860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="605">
+    <format dxfId="1265">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13603,7 +16879,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="604">
+    <format dxfId="1264">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13622,7 +16898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="603">
+    <format dxfId="1263">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13641,7 +16917,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="602">
+    <format dxfId="1262">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13660,7 +16936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="601">
+    <format dxfId="1261">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13679,7 +16955,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="600">
+    <format dxfId="1260">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13698,7 +16974,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="599">
+    <format dxfId="1259">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13717,7 +16993,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="598">
+    <format dxfId="1258">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13736,7 +17012,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="597">
+    <format dxfId="1257">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13755,7 +17031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="596">
+    <format dxfId="1256">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13774,7 +17050,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="595">
+    <format dxfId="1255">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13793,7 +17069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="594">
+    <format dxfId="1254">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13812,7 +17088,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="593">
+    <format dxfId="1253">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13831,7 +17107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="592">
+    <format dxfId="1252">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13850,7 +17126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="591">
+    <format dxfId="1251">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13869,7 +17145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="590">
+    <format dxfId="1250">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13888,7 +17164,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="589">
+    <format dxfId="1249">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13907,7 +17183,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="588">
+    <format dxfId="1248">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13926,7 +17202,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="587">
+    <format dxfId="1247">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13945,7 +17221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="586">
+    <format dxfId="1246">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13964,7 +17240,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="585">
+    <format dxfId="1245">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -13983,7 +17259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="584">
+    <format dxfId="1244">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14002,7 +17278,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="583">
+    <format dxfId="1243">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14021,7 +17297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="582">
+    <format dxfId="1242">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14040,7 +17316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="581">
+    <format dxfId="1241">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14059,7 +17335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="580">
+    <format dxfId="1240">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14078,7 +17354,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="579">
+    <format dxfId="1239">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14097,7 +17373,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="578">
+    <format dxfId="1238">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14116,7 +17392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="577">
+    <format dxfId="1237">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14135,7 +17411,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="576">
+    <format dxfId="1236">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14154,7 +17430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="575">
+    <format dxfId="1235">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14173,7 +17449,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="574">
+    <format dxfId="1234">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14192,7 +17468,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="573">
+    <format dxfId="1233">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14211,7 +17487,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="572">
+    <format dxfId="1232">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14230,7 +17506,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="571">
+    <format dxfId="1231">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14249,7 +17525,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="570">
+    <format dxfId="1230">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14268,7 +17544,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="569">
+    <format dxfId="1229">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14287,7 +17563,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="568">
+    <format dxfId="1228">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14306,7 +17582,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="567">
+    <format dxfId="1227">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14325,7 +17601,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="566">
+    <format dxfId="1226">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14344,7 +17620,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="565">
+    <format dxfId="1225">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14363,7 +17639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="564">
+    <format dxfId="1224">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14382,7 +17658,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="563">
+    <format dxfId="1223">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14401,7 +17677,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="562">
+    <format dxfId="1222">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14420,7 +17696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="561">
+    <format dxfId="1221">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14439,7 +17715,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="560">
+    <format dxfId="1220">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14458,7 +17734,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="559">
+    <format dxfId="1219">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14477,7 +17753,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="558">
+    <format dxfId="1218">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14496,7 +17772,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="557">
+    <format dxfId="1217">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14515,7 +17791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="556">
+    <format dxfId="1216">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14534,7 +17810,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="555">
+    <format dxfId="1215">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14553,7 +17829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="554">
+    <format dxfId="1214">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14572,7 +17848,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="553">
+    <format dxfId="1213">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -14591,17 +17867,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="552">
+    <format dxfId="1212">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="551">
+    <format dxfId="1211">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="550">
+    <format dxfId="1210">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14635,7 +17911,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204240A0-B4DA-427F-9AD7-7A43D8A75C6A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204240A0-B4DA-427F-9AD7-7A43D8A75C6A}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:I76" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -14723,8 +17999,8 @@
         <item x="80"/>
         <item x="81"/>
         <item x="82"/>
+        <item x="84"/>
         <item x="83"/>
-        <item x="84"/>
         <item x="85"/>
         <item x="86"/>
         <item x="87"/>
@@ -14840,14 +18116,14 @@
         <item x="4"/>
         <item x="90"/>
         <item x="91"/>
+        <item x="93"/>
         <item x="92"/>
-        <item x="93"/>
         <item x="94"/>
         <item x="95"/>
         <item x="96"/>
         <item x="97"/>
+        <item x="99"/>
         <item x="98"/>
-        <item x="99"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -15333,7 +18609,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="549">
+    <format dxfId="1209">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15342,26 +18618,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="548">
+    <format dxfId="1208">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="547">
+    <format dxfId="1207">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="546">
+    <format dxfId="1206">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="545">
+    <format dxfId="1205">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="544">
+    <format dxfId="1204">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="543">
+    <format dxfId="1203">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -15369,7 +18645,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="542">
+    <format dxfId="1202">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -15380,7 +18656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="541">
+    <format dxfId="1201">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -15398,7 +18674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="540">
+    <format dxfId="1200">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -15428,7 +18704,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="539">
+    <format dxfId="1199">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -15453,7 +18729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="538">
+    <format dxfId="1198">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -15475,7 +18751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="537">
+    <format dxfId="1197">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -15496,7 +18772,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="536">
+    <format dxfId="1196">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -15515,7 +18791,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="535">
+    <format dxfId="1195">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -15531,7 +18807,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="534">
+    <format dxfId="1194">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -15548,7 +18824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="533">
+    <format dxfId="1193">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -15572,7 +18848,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="532">
+    <format dxfId="1192">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -15595,7 +18871,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="531">
+    <format dxfId="1191">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -15616,7 +18892,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="530">
+    <format dxfId="1190">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -15633,7 +18909,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="529">
+    <format dxfId="1189">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -15653,7 +18929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="528">
+    <format dxfId="1188">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -15673,7 +18949,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="527">
+    <format dxfId="1187">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -15692,7 +18968,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="526">
+    <format dxfId="1186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15711,7 +18987,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="525">
+    <format dxfId="1185">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15730,7 +19006,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="524">
+    <format dxfId="1184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15749,7 +19025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="523">
+    <format dxfId="1183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15768,7 +19044,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="522">
+    <format dxfId="1182">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15787,7 +19063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="521">
+    <format dxfId="1181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15806,7 +19082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="520">
+    <format dxfId="1180">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15825,7 +19101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="519">
+    <format dxfId="1179">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15844,7 +19120,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="518">
+    <format dxfId="1178">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15863,7 +19139,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="517">
+    <format dxfId="1177">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15882,7 +19158,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="516">
+    <format dxfId="1176">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15901,7 +19177,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="515">
+    <format dxfId="1175">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15920,7 +19196,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="514">
+    <format dxfId="1174">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15939,7 +19215,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="513">
+    <format dxfId="1173">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15958,7 +19234,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="512">
+    <format dxfId="1172">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15977,7 +19253,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="511">
+    <format dxfId="1171">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -15996,7 +19272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="510">
+    <format dxfId="1170">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16015,7 +19291,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="509">
+    <format dxfId="1169">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16034,7 +19310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="508">
+    <format dxfId="1168">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16053,7 +19329,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="507">
+    <format dxfId="1167">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16072,7 +19348,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="506">
+    <format dxfId="1166">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16091,7 +19367,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="505">
+    <format dxfId="1165">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16110,7 +19386,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="504">
+    <format dxfId="1164">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16129,7 +19405,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="503">
+    <format dxfId="1163">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16148,7 +19424,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="502">
+    <format dxfId="1162">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16167,7 +19443,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="501">
+    <format dxfId="1161">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16186,7 +19462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="500">
+    <format dxfId="1160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -16206,7 +19482,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="499">
+    <format dxfId="1159">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16225,7 +19501,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="498">
+    <format dxfId="1158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16244,7 +19520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="497">
+    <format dxfId="1157">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16263,7 +19539,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="496">
+    <format dxfId="1156">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16282,7 +19558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="495">
+    <format dxfId="1155">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16301,7 +19577,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="494">
+    <format dxfId="1154">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16320,7 +19596,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="493">
+    <format dxfId="1153">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16339,7 +19615,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="492">
+    <format dxfId="1152">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16358,7 +19634,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="491">
+    <format dxfId="1151">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16377,7 +19653,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="490">
+    <format dxfId="1150">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16396,7 +19672,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="489">
+    <format dxfId="1149">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16415,7 +19691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="488">
+    <format dxfId="1148">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16434,7 +19710,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="487">
+    <format dxfId="1147">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16453,7 +19729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="486">
+    <format dxfId="1146">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16472,7 +19748,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="485">
+    <format dxfId="1145">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16491,7 +19767,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="484">
+    <format dxfId="1144">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16510,7 +19786,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="483">
+    <format dxfId="1143">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16529,7 +19805,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="482">
+    <format dxfId="1142">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16548,7 +19824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="481">
+    <format dxfId="1141">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16567,7 +19843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="480">
+    <format dxfId="1140">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16586,7 +19862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="479">
+    <format dxfId="1139">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16605,7 +19881,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="478">
+    <format dxfId="1138">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16624,7 +19900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="477">
+    <format dxfId="1137">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16643,7 +19919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="476">
+    <format dxfId="1136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16662,7 +19938,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="475">
+    <format dxfId="1135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16681,7 +19957,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="474">
+    <format dxfId="1134">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16700,7 +19976,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="473">
+    <format dxfId="1133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16719,7 +19995,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="472">
+    <format dxfId="1132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16738,7 +20014,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="471">
+    <format dxfId="1131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16757,7 +20033,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="470">
+    <format dxfId="1130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16776,7 +20052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="469">
+    <format dxfId="1129">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16795,7 +20071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="468">
+    <format dxfId="1128">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16814,7 +20090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="467">
+    <format dxfId="1127">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16833,7 +20109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="466">
+    <format dxfId="1126">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16852,7 +20128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="465">
+    <format dxfId="1125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16871,7 +20147,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="464">
+    <format dxfId="1124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16890,7 +20166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="463">
+    <format dxfId="1123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16909,7 +20185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="462">
+    <format dxfId="1122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16928,7 +20204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="461">
+    <format dxfId="1121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16947,7 +20223,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="460">
+    <format dxfId="1120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16966,7 +20242,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="459">
+    <format dxfId="1119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16985,7 +20261,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="458">
+    <format dxfId="1118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17004,7 +20280,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="457">
+    <format dxfId="1117">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17023,7 +20299,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="456">
+    <format dxfId="1116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17042,7 +20318,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="455">
+    <format dxfId="1115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17061,7 +20337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="454">
+    <format dxfId="1114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17080,7 +20356,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="453">
+    <format dxfId="1113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17099,7 +20375,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="452">
+    <format dxfId="1112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17118,7 +20394,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="451">
+    <format dxfId="1111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17137,7 +20413,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="450">
+    <format dxfId="1110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17156,7 +20432,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="449">
+    <format dxfId="1109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17175,7 +20451,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="448">
+    <format dxfId="1108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17194,7 +20470,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="447">
+    <format dxfId="1107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17213,7 +20489,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="446">
+    <format dxfId="1106">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17232,7 +20508,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="445">
+    <format dxfId="1105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17251,7 +20527,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="444">
+    <format dxfId="1104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17270,7 +20546,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="443">
+    <format dxfId="1103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17289,17 +20565,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="442">
+    <format dxfId="1102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="441">
+    <format dxfId="1101">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="440">
+    <format dxfId="1100">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17333,7 +20609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14087339-F950-44E8-9D3E-B46B04971F74}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14087339-F950-44E8-9D3E-B46B04971F74}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:I86" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -17421,8 +20697,8 @@
         <item x="80"/>
         <item x="81"/>
         <item x="82"/>
+        <item x="84"/>
         <item x="83"/>
-        <item x="84"/>
         <item x="85"/>
         <item x="86"/>
         <item x="87"/>
@@ -17538,14 +20814,14 @@
         <item x="4"/>
         <item x="90"/>
         <item x="91"/>
+        <item x="93"/>
         <item x="92"/>
-        <item x="93"/>
         <item x="94"/>
         <item x="95"/>
         <item x="96"/>
         <item x="97"/>
+        <item x="99"/>
         <item x="98"/>
-        <item x="99"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -17929,6 +21205,11 @@
       <x v="3"/>
     </i>
     <i r="3">
+      <x v="93"/>
+      <x v="84"/>
+      <x v="3"/>
+    </i>
+    <i r="3">
       <x v="53"/>
       <x v="5"/>
       <x v="1"/>
@@ -17973,11 +21254,6 @@
       <x v="1"/>
     </i>
     <i r="3">
-      <x v="93"/>
-      <x v="84"/>
-      <x v="3"/>
-    </i>
-    <i r="3">
       <x v="81"/>
       <x v="8"/>
       <x/>
@@ -18018,13 +21294,23 @@
       <x v="1"/>
     </i>
     <i r="3">
+      <x v="21"/>
+      <x v="26"/>
+      <x v="3"/>
+    </i>
+    <i r="3">
       <x v="97"/>
       <x v="88"/>
       <x v="3"/>
     </i>
     <i r="3">
-      <x v="21"/>
-      <x v="26"/>
+      <x v="93"/>
+      <x v="84"/>
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="99"/>
+      <x v="84"/>
       <x v="3"/>
     </i>
     <i r="3">
@@ -18037,29 +21323,19 @@
     </i>
     <i r="2">
       <x v="1"/>
+      <x v="19"/>
+      <x v="24"/>
+      <x v="3"/>
+    </i>
+    <i r="3">
       <x v="82"/>
       <x v="12"/>
       <x/>
     </i>
     <i r="3">
-      <x v="19"/>
-      <x v="24"/>
-      <x v="3"/>
-    </i>
-    <i r="3">
       <x v="31"/>
       <x v="49"/>
       <x/>
-    </i>
-    <i r="3">
-      <x v="99"/>
-      <x v="84"/>
-      <x v="3"/>
-    </i>
-    <i r="3">
-      <x v="93"/>
-      <x v="84"/>
-      <x v="3"/>
     </i>
     <i t="blank" r="2">
       <x v="1"/>
@@ -18089,7 +21365,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="439">
+    <format dxfId="1099">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18098,26 +21374,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="438">
+    <format dxfId="1098">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="437">
+    <format dxfId="1097">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="436">
+    <format dxfId="1096">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="435">
+    <format dxfId="1095">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="434">
+    <format dxfId="1094">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="433">
+    <format dxfId="1093">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -18125,7 +21401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="432">
+    <format dxfId="1092">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -18136,7 +21412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="431">
+    <format dxfId="1091">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -18154,7 +21430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="430">
+    <format dxfId="1090">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -18184,7 +21460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="429">
+    <format dxfId="1089">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -18209,7 +21485,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="428">
+    <format dxfId="1088">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -18231,7 +21507,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="427">
+    <format dxfId="1087">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -18252,7 +21528,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="426">
+    <format dxfId="1086">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -18271,7 +21547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="425">
+    <format dxfId="1085">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -18287,7 +21563,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="424">
+    <format dxfId="1084">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -18304,7 +21580,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="423">
+    <format dxfId="1083">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -18328,7 +21604,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="422">
+    <format dxfId="1082">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -18351,7 +21627,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="421">
+    <format dxfId="1081">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -18372,7 +21648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="420">
+    <format dxfId="1080">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -18389,7 +21665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="419">
+    <format dxfId="1079">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -18409,7 +21685,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="418">
+    <format dxfId="1078">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -18429,7 +21705,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="417">
+    <format dxfId="1077">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -18448,7 +21724,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="416">
+    <format dxfId="1076">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18467,7 +21743,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="415">
+    <format dxfId="1075">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18486,7 +21762,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="414">
+    <format dxfId="1074">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18505,7 +21781,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="413">
+    <format dxfId="1073">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18524,7 +21800,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="412">
+    <format dxfId="1072">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18543,7 +21819,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="411">
+    <format dxfId="1071">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18562,7 +21838,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="410">
+    <format dxfId="1070">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18581,7 +21857,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="409">
+    <format dxfId="1069">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18600,7 +21876,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="408">
+    <format dxfId="1068">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18619,7 +21895,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="407">
+    <format dxfId="1067">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18638,7 +21914,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="406">
+    <format dxfId="1066">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18657,7 +21933,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="405">
+    <format dxfId="1065">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18676,7 +21952,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="404">
+    <format dxfId="1064">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18695,7 +21971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="403">
+    <format dxfId="1063">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18714,7 +21990,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="402">
+    <format dxfId="1062">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18733,7 +22009,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="401">
+    <format dxfId="1061">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18752,7 +22028,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="400">
+    <format dxfId="1060">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18771,7 +22047,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="399">
+    <format dxfId="1059">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18790,7 +22066,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="398">
+    <format dxfId="1058">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18809,7 +22085,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="397">
+    <format dxfId="1057">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18828,7 +22104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="396">
+    <format dxfId="1056">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18847,7 +22123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="395">
+    <format dxfId="1055">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18866,7 +22142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="394">
+    <format dxfId="1054">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18885,7 +22161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="393">
+    <format dxfId="1053">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18904,7 +22180,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="392">
+    <format dxfId="1052">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18923,7 +22199,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="391">
+    <format dxfId="1051">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18942,7 +22218,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="390">
+    <format dxfId="1050">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -18962,7 +22238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="389">
+    <format dxfId="1049">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18981,7 +22257,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="388">
+    <format dxfId="1048">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19000,7 +22276,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="387">
+    <format dxfId="1047">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19019,7 +22295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="386">
+    <format dxfId="1046">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19038,7 +22314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="385">
+    <format dxfId="1045">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19057,7 +22333,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="384">
+    <format dxfId="1044">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19076,7 +22352,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="383">
+    <format dxfId="1043">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19095,7 +22371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="382">
+    <format dxfId="1042">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19114,7 +22390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="381">
+    <format dxfId="1041">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19133,7 +22409,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="380">
+    <format dxfId="1040">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19152,7 +22428,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="379">
+    <format dxfId="1039">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19171,7 +22447,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="378">
+    <format dxfId="1038">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19190,7 +22466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="377">
+    <format dxfId="1037">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19209,7 +22485,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="376">
+    <format dxfId="1036">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19228,7 +22504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="375">
+    <format dxfId="1035">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19247,7 +22523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="374">
+    <format dxfId="1034">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19266,7 +22542,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="373">
+    <format dxfId="1033">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19285,7 +22561,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="372">
+    <format dxfId="1032">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19304,7 +22580,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="371">
+    <format dxfId="1031">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19323,7 +22599,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="370">
+    <format dxfId="1030">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19342,7 +22618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="369">
+    <format dxfId="1029">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19361,7 +22637,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="368">
+    <format dxfId="1028">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19380,7 +22656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="367">
+    <format dxfId="1027">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19399,7 +22675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="366">
+    <format dxfId="1026">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19418,7 +22694,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="365">
+    <format dxfId="1025">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19437,7 +22713,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="364">
+    <format dxfId="1024">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19456,7 +22732,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="363">
+    <format dxfId="1023">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19475,7 +22751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="362">
+    <format dxfId="1022">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19494,7 +22770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="361">
+    <format dxfId="1021">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19513,7 +22789,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="360">
+    <format dxfId="1020">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19532,7 +22808,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="359">
+    <format dxfId="1019">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19551,7 +22827,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="358">
+    <format dxfId="1018">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19570,7 +22846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="357">
+    <format dxfId="1017">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19589,7 +22865,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="356">
+    <format dxfId="1016">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19608,7 +22884,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="355">
+    <format dxfId="1015">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19627,7 +22903,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="354">
+    <format dxfId="1014">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19646,7 +22922,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="353">
+    <format dxfId="1013">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19665,7 +22941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="352">
+    <format dxfId="1012">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19684,7 +22960,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="351">
+    <format dxfId="1011">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19703,7 +22979,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="350">
+    <format dxfId="1010">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19722,7 +22998,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="349">
+    <format dxfId="1009">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19741,7 +23017,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="348">
+    <format dxfId="1008">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19760,7 +23036,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="347">
+    <format dxfId="1007">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19779,7 +23055,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="346">
+    <format dxfId="1006">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19798,7 +23074,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="345">
+    <format dxfId="1005">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19817,7 +23093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="344">
+    <format dxfId="1004">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19836,7 +23112,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="343">
+    <format dxfId="1003">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19855,7 +23131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="342">
+    <format dxfId="1002">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19874,7 +23150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="341">
+    <format dxfId="1001">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19893,7 +23169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="340">
+    <format dxfId="1000">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19912,7 +23188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="339">
+    <format dxfId="999">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19931,7 +23207,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="338">
+    <format dxfId="998">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19950,7 +23226,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="337">
+    <format dxfId="997">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19969,7 +23245,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="336">
+    <format dxfId="996">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19988,7 +23264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="335">
+    <format dxfId="995">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20007,7 +23283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="334">
+    <format dxfId="994">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20026,7 +23302,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="333">
+    <format dxfId="993">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20045,17 +23321,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="332">
+    <format dxfId="992">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="331">
+    <format dxfId="991">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="330">
+    <format dxfId="990">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20409,11 +23685,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="14" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44270</v>
@@ -20474,43 +23750,43 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13">
         <v>44038</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>44094</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>44143</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>44143</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>44143</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>44143</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>44143</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>44143</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <v>44255</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
       <c r="U5" s="7" t="s">
         <v>3</v>
       </c>
@@ -20519,43 +23795,43 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
     </row>
@@ -23799,11 +27075,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="14" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44270</v>
@@ -23852,23 +27128,23 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13">
         <v>44059</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>44129</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="7" t="s">
         <v>3</v>
       </c>
@@ -23877,23 +27153,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
@@ -26205,11 +29481,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="14" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44270</v>
@@ -26258,25 +29534,25 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13">
         <v>44087</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>44122</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>44269</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="7" t="s">
         <v>3</v>
       </c>
@@ -26285,25 +29561,25 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
@@ -27832,7 +31108,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="5">
-        <v>22.400000000000002</v>
+        <v>28</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -27840,10 +31116,10 @@
       <c r="M56" s="5"/>
       <c r="N56" s="10">
         <f t="shared" si="6"/>
-        <v>53.2</v>
+        <v>58.8</v>
       </c>
       <c r="O56" s="11">
-        <f>_xlfn.RANK.EQ(N56,$N$56:$N$63)</f>
+        <f>_xlfn.RANK.EQ(N56,$N$56:$N$64)</f>
         <v>1</v>
       </c>
     </row>
@@ -27876,7 +31152,7 @@
         <v>45.8</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" ref="O57:O63" si="9">_xlfn.RANK.EQ(N57,$N$56:$N$63)</f>
+        <f t="shared" ref="O57:O64" si="9">_xlfn.RANK.EQ(N57,$N$56:$N$64)</f>
         <v>2</v>
       </c>
     </row>
@@ -27918,26 +31194,26 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="5">
-        <v>20</v>
-      </c>
-      <c r="I59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5">
+        <v>23</v>
+      </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="10">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O59" s="11">
         <f t="shared" si="9"/>
@@ -27949,26 +31225,26 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5">
-        <v>14.4</v>
-      </c>
+      <c r="H60" s="5">
+        <v>20</v>
+      </c>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="10">
         <f t="shared" si="6"/>
-        <v>14.4</v>
+        <v>20</v>
       </c>
       <c r="O60" s="11">
         <f t="shared" si="9"/>
@@ -27980,26 +31256,26 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G61" s="5"/>
-      <c r="H61" s="5">
-        <v>14</v>
-      </c>
-      <c r="I61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5">
+        <v>18</v>
+      </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="10">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="9"/>
@@ -28011,26 +31287,26 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>172</v>
       </c>
       <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5">
-        <v>9.6000000000000014</v>
-      </c>
+      <c r="H62" s="5">
+        <v>14</v>
+      </c>
+      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="10">
         <f t="shared" si="6"/>
-        <v>9.6000000000000014</v>
+        <v>14</v>
       </c>
       <c r="O62" s="11">
         <f t="shared" si="9"/>
@@ -28042,10 +31318,10 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>172</v>
@@ -28053,7 +31329,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5">
-        <v>9.6000000000000014</v>
+        <v>12</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -28061,84 +31337,84 @@
       <c r="M63" s="5"/>
       <c r="N63" s="10">
         <f t="shared" si="6"/>
-        <v>9.6000000000000014</v>
+        <v>12</v>
       </c>
       <c r="O63" s="11">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5">
+        <v>12</v>
+      </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="10" t="str">
+      <c r="N64" s="10">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O64" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="O64" s="11">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G65" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="H65" s="5">
-        <v>19.2</v>
-      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="10">
+      <c r="N65" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>22.8</v>
-      </c>
-      <c r="O65" s="11">
-        <f>_xlfn.RANK.EQ(N65,$N$65:$N$69)</f>
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="O65" s="11"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D66" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G66" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="G66" s="5">
+        <v>3.6</v>
+      </c>
       <c r="H66" s="5">
-        <v>15.6</v>
+        <v>19.2</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -28147,11 +31423,11 @@
       <c r="M66" s="5"/>
       <c r="N66" s="10">
         <f t="shared" si="6"/>
-        <v>15.6</v>
+        <v>22.8</v>
       </c>
       <c r="O66" s="11">
         <f t="shared" ref="O66:O69" si="10">_xlfn.RANK.EQ(N66,$N$65:$N$69)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -28159,17 +31435,17 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5">
-        <v>12</v>
+        <v>15.6</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -28178,11 +31454,11 @@
       <c r="M67" s="5"/>
       <c r="N67" s="10">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>15.6</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -28190,30 +31466,30 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5">
-        <v>9.2000000000000011</v>
-      </c>
+      <c r="H68" s="5">
+        <v>12</v>
+      </c>
+      <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="10">
         <f t="shared" si="6"/>
-        <v>9.2000000000000011</v>
+        <v>12</v>
       </c>
       <c r="O68" s="11">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -28232,7 +31508,7 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -28240,11 +31516,11 @@
       <c r="M69" s="5"/>
       <c r="N69" s="10">
         <f t="shared" si="6"/>
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="O69" s="11">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -28302,7 +31578,7 @@
         <v>88</v>
       </c>
       <c r="O71" s="11">
-        <f>_xlfn.RANK.EQ(N71,$N$71:$N$79)</f>
+        <f>_xlfn.RANK.EQ(N71,$N$71:$N$81)</f>
         <v>1</v>
       </c>
     </row>
@@ -28337,7 +31613,7 @@
         <v>66</v>
       </c>
       <c r="O72" s="11">
-        <f t="shared" ref="O72:O79" si="12">_xlfn.RANK.EQ(N72,$N$71:$N$79)</f>
+        <f t="shared" ref="O72:O81" si="12">_xlfn.RANK.EQ(N72,$N$71:$N$81)</f>
         <v>2</v>
       </c>
     </row>
@@ -28480,10 +31756,10 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>171</v>
@@ -28511,10 +31787,10 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>171</v>
@@ -28542,18 +31818,18 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -28561,7 +31837,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="10">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="12"/>
@@ -28572,108 +31848,103 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="N80" s="5" t="str">
+      <c r="I80" s="5">
+        <v>12</v>
+      </c>
+      <c r="N80" s="5">
         <f t="shared" si="11"/>
-        <v/>
+        <v>12</v>
+      </c>
+      <c r="O80" s="11">
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G81" s="5">
-        <v>10.799999999999999</v>
-      </c>
-      <c r="H81" s="5">
-        <v>19.2</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
       <c r="I81" s="5">
-        <v>22.400000000000002</v>
+        <v>7</v>
       </c>
       <c r="N81" s="5">
         <f t="shared" si="11"/>
-        <v>52.4</v>
+        <v>7</v>
       </c>
       <c r="O81" s="11">
-        <f>_xlfn.RANK.EQ(N81,$N$81:$N$85)</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G82" s="5">
-        <v>16.8</v>
-      </c>
-      <c r="H82" s="5">
-        <v>15.6</v>
-      </c>
-      <c r="I82" s="5">
-        <v>18.400000000000002</v>
-      </c>
-      <c r="N82" s="5">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="N82" s="5" t="str">
         <f t="shared" si="11"/>
-        <v>50.800000000000004</v>
-      </c>
-      <c r="O82" s="11">
-        <f t="shared" ref="O82:O85" si="13">_xlfn.RANK.EQ(N82,$N$81:$N$85)</f>
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="O82" s="11"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G83" s="5">
-        <v>13.799999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="H83" s="5">
-        <v>12</v>
-      </c>
-      <c r="I83" s="5"/>
+        <v>15.6</v>
+      </c>
+      <c r="I83" s="5">
+        <v>9.2000000000000011</v>
+      </c>
       <c r="N83" s="5">
         <f t="shared" si="11"/>
-        <v>25.799999999999997</v>
+        <v>41.6</v>
       </c>
       <c r="O83" s="11">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f>_xlfn.RANK.EQ(N83,$N$83:$N$85)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -28681,26 +31952,30 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="G84" s="5">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="H84" s="5">
+        <v>19.2</v>
+      </c>
       <c r="I84" s="5">
-        <v>9.6000000000000014</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="N84" s="5">
         <f t="shared" si="11"/>
-        <v>9.6000000000000014</v>
+        <v>41.199999999999996</v>
       </c>
       <c r="O84" s="11">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" ref="O84:O85" si="13">_xlfn.RANK.EQ(N84,$N$83:$N$85)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -28708,26 +31983,28 @@
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5">
-        <v>9.6000000000000014</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G85" s="5">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="H85" s="5">
+        <v>12</v>
+      </c>
+      <c r="I85" s="5"/>
       <c r="N85" s="5">
         <f t="shared" si="11"/>
-        <v>9.6000000000000014</v>
+        <v>25.799999999999997</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">

--- a/2021/FSARankings2021DisplayV2.xlsx
+++ b/2021/FSARankings2021DisplayV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3C5AF-3BEE-4B58-AC2B-294A8A6BC210}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D93F46-5FA4-4E89-8933-0AC8B3029371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2F090B5A-58A0-4679-AF74-9DED37E728B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F090B5A-58A0-4679-AF74-9DED37E728B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Open &amp; Veteran 2021 Ranking" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="201">
   <si>
     <t>Ranking Points</t>
   </si>
@@ -636,6 +636,12 @@
   <si>
     <t>Kifaru</t>
   </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Dzodzos</t>
+  </si>
 </sst>
 </file>
 
@@ -741,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,11 +779,558 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1320">
+  <dxfs count="1430">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="0.0"/>
     </dxf>
@@ -7344,13 +7897,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rob Thomas" refreshedDate="44270.42212048611" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="436" xr:uid="{316739D0-5A1B-4D88-BCC0-BF22C1D2B14E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FSA" refreshedDate="44276.723065393518" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="474" xr:uid="{316739D0-5A1B-4D88-BCC0-BF22C1D2B14E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="LastName" numFmtId="0">
-      <sharedItems count="90">
+      <sharedItems count="91">
         <s v="Mortimer"/>
         <s v="Barratt"/>
         <s v="Chandran"/>
@@ -7441,10 +7994,11 @@
         <s v="Hyde"/>
         <s v="Pook-Kathriner"/>
         <s v="Alexander"/>
+        <s v="Dzodzos"/>
       </sharedItems>
     </cacheField>
     <cacheField name="FirstName" numFmtId="0">
-      <sharedItems count="100">
+      <sharedItems count="101">
         <s v="Julian"/>
         <s v="Georgina"/>
         <s v="Roshan"/>
@@ -7545,6 +8099,7 @@
         <s v="Max"/>
         <s v="Kifaru"/>
         <s v="Matthew"/>
+        <s v="Michael"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Rank" numFmtId="0">
@@ -7591,7 +8146,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="EventDate" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-04T00:00:00" maxDate="2021-03-15T00:00:00" count="16">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-04T00:00:00" maxDate="2021-03-22T00:00:00" count="17">
         <d v="2020-01-04T00:00:00"/>
         <d v="2020-01-11T00:00:00"/>
         <d v="2020-02-09T00:00:00"/>
@@ -7608,6 +8163,7 @@
         <d v="2020-11-08T00:00:00"/>
         <d v="2021-02-28T00:00:00"/>
         <d v="2021-03-14T00:00:00"/>
+        <d v="2021-03-21T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Level" numFmtId="0">
@@ -7717,7 +8273,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="436">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="474">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -15130,15 +15686,661 @@
     <x v="6"/>
     <n v="9.2000000000000011"/>
   </r>
+  <r>
+    <x v="43"/>
+    <x v="49"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="22.400000000000002"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="18.400000000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="48"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="14.4"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="50"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="14.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="13"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="44"/>
+    <x v="10"/>
+    <x v="13"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="38"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="39"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="40"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="68"/>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="60"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="72"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="73"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="90"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="56"/>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="57"/>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="14"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="11.200000000000001"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="49"/>
+    <x v="10"/>
+    <x v="14"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="9.2000000000000011"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="100"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="51"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="52"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="31"/>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="53"/>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="78"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="22.400000000000002"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="49"/>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="18.400000000000002"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="54"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="14.4"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="36"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="14.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="40"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="16.8"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="44"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="13.799999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="48"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="3.6"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="60"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="10.799999999999999"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="90"/>
+    <x v="16"/>
+    <x v="9"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="81"/>
+    <x v="16"/>
+    <x v="9"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="57"/>
+    <x v="16"/>
+    <x v="9"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="53"/>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C807EE97-4FCD-47D4-8DB6-23B875D86351}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A3:O87" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
+  <location ref="A3:P91" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="90">
+      <items count="91">
         <item x="19"/>
         <item x="22"/>
         <item x="76"/>
@@ -15229,6 +16431,7 @@
         <item x="87"/>
         <item x="88"/>
         <item x="89"/>
+        <item x="90"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -15246,7 +16449,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="100">
+      <items count="101">
         <item x="16"/>
         <item x="32"/>
         <item x="7"/>
@@ -15347,6 +16550,7 @@
         <item x="97"/>
         <item x="99"/>
         <item x="98"/>
+        <item x="100"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -15361,7 +16565,7 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisCol" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="16">
+      <items count="17">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -15378,6 +16582,7 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -15463,7 +16668,7 @@
     <field x="0"/>
     <field x="10"/>
   </rowFields>
-  <rowItems count="81">
+  <rowItems count="85">
     <i>
       <x/>
       <x/>
@@ -15488,6 +16693,16 @@
       <x v="1"/>
     </i>
     <i r="3">
+      <x v="16"/>
+      <x v="22"/>
+      <x/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+      <x v="15"/>
+      <x v="1"/>
+    </i>
+    <i r="3">
       <x v="29"/>
       <x v="60"/>
       <x/>
@@ -15498,13 +16713,8 @@
       <x v="1"/>
     </i>
     <i r="3">
-      <x v="16"/>
-      <x v="22"/>
-      <x/>
-    </i>
-    <i r="3">
-      <x v="4"/>
-      <x v="15"/>
+      <x v="79"/>
+      <x v="41"/>
       <x v="1"/>
     </i>
     <i r="3">
@@ -15523,24 +16733,29 @@
       <x v="1"/>
     </i>
     <i r="3">
-      <x v="79"/>
-      <x v="41"/>
-      <x v="1"/>
-    </i>
-    <i r="3">
       <x v="14"/>
       <x v="59"/>
       <x/>
     </i>
     <i r="3">
-      <x v="17"/>
-      <x v="51"/>
-      <x/>
+      <x v="3"/>
+      <x v="57"/>
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="43"/>
+      <x v="77"/>
+      <x v="1"/>
     </i>
     <i r="3">
       <x v="67"/>
       <x v="40"/>
       <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="17"/>
+      <x v="51"/>
+      <x/>
     </i>
     <i t="blank" r="2">
       <x/>
@@ -15557,13 +16772,18 @@
       <x v="1"/>
     </i>
     <i r="3">
-      <x v="57"/>
-      <x v="78"/>
+      <x v="40"/>
+      <x v="21"/>
       <x v="1"/>
     </i>
     <i r="3">
-      <x v="40"/>
-      <x v="21"/>
+      <x v="71"/>
+      <x v="30"/>
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="57"/>
+      <x v="78"/>
       <x v="1"/>
     </i>
     <i r="3">
@@ -15577,11 +16797,6 @@
       <x v="1"/>
     </i>
     <i r="3">
-      <x v="71"/>
-      <x v="30"/>
-      <x v="2"/>
-    </i>
-    <i r="3">
       <x v="7"/>
       <x v="70"/>
       <x v="1"/>
@@ -15592,14 +16807,14 @@
     <i r="1">
       <x v="7"/>
       <x/>
+      <x v="26"/>
+      <x v="26"/>
+      <x v="3"/>
+    </i>
+    <i r="3">
       <x v="29"/>
       <x v="60"/>
       <x/>
-    </i>
-    <i r="3">
-      <x v="26"/>
-      <x v="26"/>
-      <x v="3"/>
     </i>
     <i r="3">
       <x v="87"/>
@@ -15612,14 +16827,14 @@
       <x v="1"/>
     </i>
     <i r="3">
+      <x v="16"/>
+      <x v="22"/>
+      <x/>
+    </i>
+    <i r="3">
       <x v="9"/>
       <x v="35"/>
       <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="16"/>
-      <x v="22"/>
-      <x/>
     </i>
     <i r="3">
       <x v="17"/>
@@ -15667,6 +16882,16 @@
       <x v="2"/>
     </i>
     <i r="3">
+      <x v="89"/>
+      <x v="26"/>
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="61"/>
+      <x v="69"/>
+      <x v="1"/>
+    </i>
+    <i r="3">
       <x v="80"/>
       <x v="38"/>
       <x/>
@@ -15677,24 +16902,19 @@
       <x/>
     </i>
     <i r="3">
-      <x v="61"/>
-      <x v="69"/>
-      <x v="1"/>
+      <x v="39"/>
+      <x v="71"/>
+      <x v="6"/>
     </i>
     <i r="3">
-      <x v="89"/>
-      <x v="26"/>
-      <x v="3"/>
+      <x v="100"/>
+      <x v="90"/>
+      <x v="1"/>
     </i>
     <i r="3">
       <x v="66"/>
       <x v="16"/>
       <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="39"/>
-      <x v="71"/>
-      <x v="6"/>
     </i>
     <i t="blank" r="2">
       <x/>
@@ -15706,14 +16926,14 @@
       <x v="2"/>
     </i>
     <i r="3">
+      <x v="78"/>
+      <x v="14"/>
+      <x v="3"/>
+    </i>
+    <i r="3">
       <x v="37"/>
       <x v="9"/>
       <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="78"/>
-      <x v="14"/>
-      <x v="3"/>
     </i>
     <i r="3">
       <x v="71"/>
@@ -15724,6 +16944,11 @@
       <x v="19"/>
       <x v="24"/>
       <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="82"/>
+      <x v="12"/>
+      <x/>
     </i>
     <i t="blank" r="2">
       <x v="1"/>
@@ -15771,11 +16996,6 @@
       <x v="3"/>
     </i>
     <i r="3">
-      <x v="27"/>
-      <x v="36"/>
-      <x v="3"/>
-    </i>
-    <i r="3">
       <x v="51"/>
       <x v="33"/>
       <x v="3"/>
@@ -15786,8 +17006,8 @@
       <x v="3"/>
     </i>
     <i r="3">
-      <x v="67"/>
-      <x v="40"/>
+      <x v="27"/>
+      <x v="36"/>
       <x v="3"/>
     </i>
     <i r="3">
@@ -15796,13 +17016,18 @@
       <x v="3"/>
     </i>
     <i r="3">
+      <x v="90"/>
+      <x v="80"/>
+      <x v="3"/>
+    </i>
+    <i r="3">
       <x v="11"/>
       <x v="34"/>
       <x v="3"/>
     </i>
     <i r="3">
-      <x v="90"/>
-      <x v="80"/>
+      <x v="67"/>
+      <x v="40"/>
       <x v="3"/>
     </i>
     <i r="3">
@@ -15873,7 +17098,7 @@
     <field x="4"/>
     <field x="6"/>
   </colFields>
-  <colItems count="9">
+  <colItems count="10">
     <i>
       <x/>
       <x v="7"/>
@@ -15906,12 +17131,16 @@
       <x v="14"/>
       <x v="3"/>
     </i>
+    <i r="1">
+      <x v="16"/>
+      <x v="3"/>
+    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="1319">
+    <format dxfId="1429">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15920,26 +17149,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1318">
+    <format dxfId="1428">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1317">
+    <format dxfId="1427">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1316">
+    <format dxfId="1426">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1315">
+    <format dxfId="1425">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1314">
+    <format dxfId="1424">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1313">
+    <format dxfId="1423">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -15947,7 +17176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1312">
+    <format dxfId="1422">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -15958,7 +17187,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1311">
+    <format dxfId="1421">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -15976,7 +17205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1310">
+    <format dxfId="1420">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -16006,7 +17235,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1309">
+    <format dxfId="1419">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -16031,7 +17260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1308">
+    <format dxfId="1418">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -16053,7 +17282,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1307">
+    <format dxfId="1417">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -16074,7 +17303,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1306">
+    <format dxfId="1416">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -16093,7 +17322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1305">
+    <format dxfId="1415">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -16109,7 +17338,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1304">
+    <format dxfId="1414">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -16126,7 +17355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1303">
+    <format dxfId="1413">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -16150,7 +17379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1302">
+    <format dxfId="1412">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -16173,7 +17402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1301">
+    <format dxfId="1411">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -16194,7 +17423,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1300">
+    <format dxfId="1410">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -16211,7 +17440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1299">
+    <format dxfId="1409">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -16231,7 +17460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1298">
+    <format dxfId="1408">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -16251,7 +17480,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1297">
+    <format dxfId="1407">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -16270,7 +17499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1296">
+    <format dxfId="1406">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16289,7 +17518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1295">
+    <format dxfId="1405">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16308,7 +17537,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1294">
+    <format dxfId="1404">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16327,7 +17556,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1293">
+    <format dxfId="1403">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16346,7 +17575,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1292">
+    <format dxfId="1402">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16365,7 +17594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1291">
+    <format dxfId="1401">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16384,7 +17613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1290">
+    <format dxfId="1400">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16403,7 +17632,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1289">
+    <format dxfId="1399">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16422,7 +17651,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1288">
+    <format dxfId="1398">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16441,7 +17670,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1287">
+    <format dxfId="1397">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16460,7 +17689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1286">
+    <format dxfId="1396">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16479,7 +17708,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1285">
+    <format dxfId="1395">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16498,7 +17727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1284">
+    <format dxfId="1394">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16517,7 +17746,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1283">
+    <format dxfId="1393">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16536,7 +17765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1282">
+    <format dxfId="1392">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16555,7 +17784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1281">
+    <format dxfId="1391">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16574,7 +17803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1280">
+    <format dxfId="1390">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16593,7 +17822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1279">
+    <format dxfId="1389">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16612,7 +17841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1278">
+    <format dxfId="1388">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16631,7 +17860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1277">
+    <format dxfId="1387">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16650,7 +17879,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1276">
+    <format dxfId="1386">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16669,7 +17898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1275">
+    <format dxfId="1385">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16688,7 +17917,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1274">
+    <format dxfId="1384">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16707,7 +17936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1273">
+    <format dxfId="1383">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16726,7 +17955,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1272">
+    <format dxfId="1382">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16745,7 +17974,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1271">
+    <format dxfId="1381">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16764,7 +17993,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1270">
+    <format dxfId="1380">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -16784,7 +18013,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1269">
+    <format dxfId="1379">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16803,7 +18032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1268">
+    <format dxfId="1378">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16822,7 +18051,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1267">
+    <format dxfId="1377">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16841,7 +18070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1266">
+    <format dxfId="1376">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16860,7 +18089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1265">
+    <format dxfId="1375">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16879,7 +18108,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1264">
+    <format dxfId="1374">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16898,7 +18127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1263">
+    <format dxfId="1373">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16917,7 +18146,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1262">
+    <format dxfId="1372">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16936,7 +18165,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1261">
+    <format dxfId="1371">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16955,7 +18184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1260">
+    <format dxfId="1370">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16974,7 +18203,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1259">
+    <format dxfId="1369">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16993,7 +18222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1258">
+    <format dxfId="1368">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17012,7 +18241,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1257">
+    <format dxfId="1367">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17031,7 +18260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1256">
+    <format dxfId="1366">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17050,7 +18279,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1255">
+    <format dxfId="1365">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17069,7 +18298,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1254">
+    <format dxfId="1364">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17088,7 +18317,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1253">
+    <format dxfId="1363">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17107,7 +18336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1252">
+    <format dxfId="1362">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17126,7 +18355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1251">
+    <format dxfId="1361">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17145,7 +18374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1250">
+    <format dxfId="1360">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17164,7 +18393,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1249">
+    <format dxfId="1359">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17183,7 +18412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1248">
+    <format dxfId="1358">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17202,7 +18431,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1247">
+    <format dxfId="1357">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17221,7 +18450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1246">
+    <format dxfId="1356">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17240,7 +18469,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1245">
+    <format dxfId="1355">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17259,7 +18488,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1244">
+    <format dxfId="1354">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17278,7 +18507,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1243">
+    <format dxfId="1353">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17297,7 +18526,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1242">
+    <format dxfId="1352">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17316,7 +18545,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1241">
+    <format dxfId="1351">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17335,7 +18564,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1240">
+    <format dxfId="1350">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17354,7 +18583,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1239">
+    <format dxfId="1349">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17373,7 +18602,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1238">
+    <format dxfId="1348">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17392,7 +18621,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1237">
+    <format dxfId="1347">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17411,7 +18640,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1236">
+    <format dxfId="1346">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17430,7 +18659,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1235">
+    <format dxfId="1345">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17449,7 +18678,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1234">
+    <format dxfId="1344">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17468,7 +18697,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1233">
+    <format dxfId="1343">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17487,7 +18716,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1232">
+    <format dxfId="1342">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17506,7 +18735,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1231">
+    <format dxfId="1341">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17525,7 +18754,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1230">
+    <format dxfId="1340">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17544,7 +18773,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1229">
+    <format dxfId="1339">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17563,7 +18792,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1228">
+    <format dxfId="1338">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17582,7 +18811,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1227">
+    <format dxfId="1337">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17601,7 +18830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1226">
+    <format dxfId="1336">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17620,7 +18849,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1225">
+    <format dxfId="1335">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17639,7 +18868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1224">
+    <format dxfId="1334">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17658,7 +18887,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1223">
+    <format dxfId="1333">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17677,7 +18906,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1222">
+    <format dxfId="1332">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17696,7 +18925,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1221">
+    <format dxfId="1331">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17715,7 +18944,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1220">
+    <format dxfId="1330">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17734,7 +18963,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1219">
+    <format dxfId="1329">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17753,7 +18982,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1218">
+    <format dxfId="1328">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17772,7 +19001,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1217">
+    <format dxfId="1327">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17791,7 +19020,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1216">
+    <format dxfId="1326">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17810,7 +19039,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1215">
+    <format dxfId="1325">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17829,7 +19058,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1214">
+    <format dxfId="1324">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17848,7 +19077,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1213">
+    <format dxfId="1323">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17867,17 +19096,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1212">
+    <format dxfId="1322">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1211">
+    <format dxfId="1321">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1210">
+    <format dxfId="1320">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17889,11 +19118,11 @@
   </formats>
   <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="4" type="dateNewerThan" evalOrder="-1" id="5">
+    <filter fld="4" type="dateNewerThan" evalOrder="-1" id="6">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters>
-            <customFilter operator="greaterThan" val="43910"/>
+            <customFilter operator="greaterThan" val="43911"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -17915,7 +19144,7 @@
   <location ref="A3:I76" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="90">
+      <items count="91">
         <item x="19"/>
         <item x="22"/>
         <item x="76"/>
@@ -18006,6 +19235,7 @@
         <item x="87"/>
         <item x="88"/>
         <item x="89"/>
+        <item x="90"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -18023,7 +19253,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="100">
+      <items count="101">
         <item x="16"/>
         <item x="32"/>
         <item x="7"/>
@@ -18124,6 +19354,7 @@
         <item x="97"/>
         <item x="99"/>
         <item x="98"/>
+        <item x="100"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -18138,7 +19369,7 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisCol" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="16">
+      <items count="17">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -18155,6 +19386,7 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -18609,7 +19841,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="1209">
+    <format dxfId="1319">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18618,26 +19850,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1208">
+    <format dxfId="1318">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1207">
+    <format dxfId="1317">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1206">
+    <format dxfId="1316">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1205">
+    <format dxfId="1315">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1204">
+    <format dxfId="1314">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1203">
+    <format dxfId="1313">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -18645,7 +19877,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1202">
+    <format dxfId="1312">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -18656,7 +19888,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1201">
+    <format dxfId="1311">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -18674,7 +19906,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1200">
+    <format dxfId="1310">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -18704,7 +19936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1199">
+    <format dxfId="1309">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -18729,7 +19961,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1198">
+    <format dxfId="1308">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -18751,7 +19983,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1197">
+    <format dxfId="1307">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -18772,7 +20004,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1196">
+    <format dxfId="1306">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -18791,7 +20023,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1195">
+    <format dxfId="1305">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -18807,7 +20039,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1194">
+    <format dxfId="1304">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -18824,7 +20056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1193">
+    <format dxfId="1303">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -18848,7 +20080,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1192">
+    <format dxfId="1302">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -18871,7 +20103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1191">
+    <format dxfId="1301">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -18892,7 +20124,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1190">
+    <format dxfId="1300">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -18909,7 +20141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1189">
+    <format dxfId="1299">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -18929,7 +20161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1188">
+    <format dxfId="1298">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -18949,7 +20181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1187">
+    <format dxfId="1297">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -18968,7 +20200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1186">
+    <format dxfId="1296">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18987,7 +20219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1185">
+    <format dxfId="1295">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19006,7 +20238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1184">
+    <format dxfId="1294">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19025,7 +20257,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1183">
+    <format dxfId="1293">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19044,7 +20276,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1182">
+    <format dxfId="1292">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19063,7 +20295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1181">
+    <format dxfId="1291">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19082,7 +20314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1180">
+    <format dxfId="1290">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19101,7 +20333,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1179">
+    <format dxfId="1289">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19120,7 +20352,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1178">
+    <format dxfId="1288">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19139,7 +20371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1177">
+    <format dxfId="1287">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19158,7 +20390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1176">
+    <format dxfId="1286">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19177,7 +20409,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1175">
+    <format dxfId="1285">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19196,7 +20428,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1174">
+    <format dxfId="1284">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19215,7 +20447,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1173">
+    <format dxfId="1283">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19234,7 +20466,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1172">
+    <format dxfId="1282">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19253,7 +20485,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1171">
+    <format dxfId="1281">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19272,7 +20504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1170">
+    <format dxfId="1280">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19291,7 +20523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1169">
+    <format dxfId="1279">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19310,7 +20542,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1168">
+    <format dxfId="1278">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19329,7 +20561,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1167">
+    <format dxfId="1277">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19348,7 +20580,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1166">
+    <format dxfId="1276">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19367,7 +20599,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1165">
+    <format dxfId="1275">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19386,7 +20618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1164">
+    <format dxfId="1274">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19405,7 +20637,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1163">
+    <format dxfId="1273">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19424,7 +20656,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1162">
+    <format dxfId="1272">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19443,7 +20675,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1161">
+    <format dxfId="1271">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19462,7 +20694,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1160">
+    <format dxfId="1270">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -19482,7 +20714,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1159">
+    <format dxfId="1269">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19501,7 +20733,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1158">
+    <format dxfId="1268">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19520,7 +20752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1157">
+    <format dxfId="1267">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19539,7 +20771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1156">
+    <format dxfId="1266">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19558,7 +20790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1155">
+    <format dxfId="1265">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19577,7 +20809,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1154">
+    <format dxfId="1264">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19596,7 +20828,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1153">
+    <format dxfId="1263">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19615,7 +20847,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1152">
+    <format dxfId="1262">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19634,7 +20866,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1151">
+    <format dxfId="1261">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19653,7 +20885,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1150">
+    <format dxfId="1260">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19672,7 +20904,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1149">
+    <format dxfId="1259">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19691,7 +20923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1148">
+    <format dxfId="1258">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19710,7 +20942,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1147">
+    <format dxfId="1257">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19729,7 +20961,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1146">
+    <format dxfId="1256">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19748,7 +20980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1145">
+    <format dxfId="1255">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19767,7 +20999,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1144">
+    <format dxfId="1254">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19786,7 +21018,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1143">
+    <format dxfId="1253">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19805,7 +21037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1142">
+    <format dxfId="1252">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19824,7 +21056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1141">
+    <format dxfId="1251">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19843,7 +21075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1140">
+    <format dxfId="1250">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19862,7 +21094,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1139">
+    <format dxfId="1249">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19881,7 +21113,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1138">
+    <format dxfId="1248">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19900,7 +21132,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1137">
+    <format dxfId="1247">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19919,7 +21151,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1136">
+    <format dxfId="1246">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19938,7 +21170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1135">
+    <format dxfId="1245">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19957,7 +21189,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1134">
+    <format dxfId="1244">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19976,7 +21208,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1133">
+    <format dxfId="1243">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19995,7 +21227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1132">
+    <format dxfId="1242">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20014,7 +21246,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1131">
+    <format dxfId="1241">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20033,7 +21265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1130">
+    <format dxfId="1240">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20052,7 +21284,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1129">
+    <format dxfId="1239">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20071,7 +21303,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1128">
+    <format dxfId="1238">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20090,7 +21322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1127">
+    <format dxfId="1237">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20109,7 +21341,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1126">
+    <format dxfId="1236">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20128,7 +21360,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1125">
+    <format dxfId="1235">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20147,7 +21379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1124">
+    <format dxfId="1234">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20166,7 +21398,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1123">
+    <format dxfId="1233">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20185,7 +21417,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1122">
+    <format dxfId="1232">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20204,7 +21436,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1121">
+    <format dxfId="1231">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20223,7 +21455,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1120">
+    <format dxfId="1230">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20242,7 +21474,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1119">
+    <format dxfId="1229">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20261,7 +21493,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1118">
+    <format dxfId="1228">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20280,7 +21512,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1117">
+    <format dxfId="1227">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20299,7 +21531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1116">
+    <format dxfId="1226">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20318,7 +21550,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1115">
+    <format dxfId="1225">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20337,7 +21569,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1114">
+    <format dxfId="1224">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20356,7 +21588,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1113">
+    <format dxfId="1223">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20375,7 +21607,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1112">
+    <format dxfId="1222">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20394,7 +21626,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1111">
+    <format dxfId="1221">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20413,7 +21645,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1110">
+    <format dxfId="1220">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20432,7 +21664,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1109">
+    <format dxfId="1219">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20451,7 +21683,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1108">
+    <format dxfId="1218">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20470,7 +21702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1107">
+    <format dxfId="1217">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20489,7 +21721,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1106">
+    <format dxfId="1216">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20508,7 +21740,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1105">
+    <format dxfId="1215">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20527,7 +21759,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1104">
+    <format dxfId="1214">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20546,7 +21778,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1103">
+    <format dxfId="1213">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20565,17 +21797,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1102">
+    <format dxfId="1212">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1101">
+    <format dxfId="1211">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1100">
+    <format dxfId="1210">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20613,7 +21845,7 @@
   <location ref="A3:I86" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="90">
+      <items count="91">
         <item x="19"/>
         <item x="22"/>
         <item x="76"/>
@@ -20704,6 +21936,7 @@
         <item x="87"/>
         <item x="88"/>
         <item x="89"/>
+        <item x="90"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -20721,7 +21954,7 @@
       </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="100">
+      <items count="101">
         <item x="16"/>
         <item x="32"/>
         <item x="7"/>
@@ -20822,6 +22055,7 @@
         <item x="97"/>
         <item x="99"/>
         <item x="98"/>
+        <item x="100"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -20841,7 +22075,7 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisCol" compact="0" numFmtId="166" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="16">
+      <items count="17">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -20858,6 +22092,7 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
       </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
@@ -21365,7 +22600,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="1099">
+    <format dxfId="1209">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21374,26 +22609,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1098">
+    <format dxfId="1208">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1097">
+    <format dxfId="1207">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1096">
+    <format dxfId="1206">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1095">
+    <format dxfId="1205">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1094">
+    <format dxfId="1204">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1093">
+    <format dxfId="1203">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -21401,7 +22636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1092">
+    <format dxfId="1202">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -21412,7 +22647,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1091">
+    <format dxfId="1201">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -21430,7 +22665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1090">
+    <format dxfId="1200">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -21460,7 +22695,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1089">
+    <format dxfId="1199">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -21485,7 +22720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1088">
+    <format dxfId="1198">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -21507,7 +22742,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1087">
+    <format dxfId="1197">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -21528,7 +22763,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1086">
+    <format dxfId="1196">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -21547,7 +22782,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1085">
+    <format dxfId="1195">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -21563,7 +22798,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1084">
+    <format dxfId="1194">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -21580,7 +22815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1083">
+    <format dxfId="1193">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -21604,7 +22839,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1082">
+    <format dxfId="1192">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -21627,7 +22862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1081">
+    <format dxfId="1191">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -21648,7 +22883,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1080">
+    <format dxfId="1190">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -21665,7 +22900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1079">
+    <format dxfId="1189">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -21685,7 +22920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1078">
+    <format dxfId="1188">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -21705,7 +22940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1077">
+    <format dxfId="1187">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -21724,7 +22959,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1076">
+    <format dxfId="1186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21743,7 +22978,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1075">
+    <format dxfId="1185">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21762,7 +22997,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1074">
+    <format dxfId="1184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21781,7 +23016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1073">
+    <format dxfId="1183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21800,7 +23035,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1072">
+    <format dxfId="1182">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21819,7 +23054,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1071">
+    <format dxfId="1181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21838,7 +23073,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1070">
+    <format dxfId="1180">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21857,7 +23092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1069">
+    <format dxfId="1179">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21876,7 +23111,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1068">
+    <format dxfId="1178">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21895,7 +23130,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1067">
+    <format dxfId="1177">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21914,7 +23149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1066">
+    <format dxfId="1176">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21933,7 +23168,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1065">
+    <format dxfId="1175">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21952,7 +23187,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1064">
+    <format dxfId="1174">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21971,7 +23206,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1063">
+    <format dxfId="1173">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21990,7 +23225,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1062">
+    <format dxfId="1172">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22009,7 +23244,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1061">
+    <format dxfId="1171">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22028,7 +23263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1060">
+    <format dxfId="1170">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22047,7 +23282,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1059">
+    <format dxfId="1169">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22066,7 +23301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1058">
+    <format dxfId="1168">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22085,7 +23320,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1057">
+    <format dxfId="1167">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22104,7 +23339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1056">
+    <format dxfId="1166">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22123,7 +23358,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1055">
+    <format dxfId="1165">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22142,7 +23377,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1054">
+    <format dxfId="1164">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22161,7 +23396,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1053">
+    <format dxfId="1163">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22180,7 +23415,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1052">
+    <format dxfId="1162">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22199,7 +23434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1051">
+    <format dxfId="1161">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22218,7 +23453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1050">
+    <format dxfId="1160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -22238,7 +23473,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1049">
+    <format dxfId="1159">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22257,7 +23492,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1048">
+    <format dxfId="1158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22276,7 +23511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1047">
+    <format dxfId="1157">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22295,7 +23530,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1046">
+    <format dxfId="1156">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22314,7 +23549,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1045">
+    <format dxfId="1155">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22333,7 +23568,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1044">
+    <format dxfId="1154">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22352,7 +23587,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1043">
+    <format dxfId="1153">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22371,7 +23606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1042">
+    <format dxfId="1152">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22390,7 +23625,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1041">
+    <format dxfId="1151">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22409,7 +23644,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1040">
+    <format dxfId="1150">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22428,7 +23663,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1039">
+    <format dxfId="1149">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22447,7 +23682,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1038">
+    <format dxfId="1148">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22466,7 +23701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1037">
+    <format dxfId="1147">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22485,7 +23720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1036">
+    <format dxfId="1146">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22504,7 +23739,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1035">
+    <format dxfId="1145">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22523,7 +23758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1034">
+    <format dxfId="1144">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22542,7 +23777,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1033">
+    <format dxfId="1143">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22561,7 +23796,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1032">
+    <format dxfId="1142">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22580,7 +23815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1031">
+    <format dxfId="1141">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22599,7 +23834,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1030">
+    <format dxfId="1140">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22618,7 +23853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1029">
+    <format dxfId="1139">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22637,7 +23872,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1028">
+    <format dxfId="1138">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22656,7 +23891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1027">
+    <format dxfId="1137">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22675,7 +23910,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1026">
+    <format dxfId="1136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22694,7 +23929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1025">
+    <format dxfId="1135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22713,7 +23948,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1024">
+    <format dxfId="1134">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22732,7 +23967,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1023">
+    <format dxfId="1133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22751,7 +23986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1022">
+    <format dxfId="1132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22770,7 +24005,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1021">
+    <format dxfId="1131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22789,7 +24024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1020">
+    <format dxfId="1130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22808,7 +24043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1019">
+    <format dxfId="1129">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22827,7 +24062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1018">
+    <format dxfId="1128">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22846,7 +24081,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1017">
+    <format dxfId="1127">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22865,7 +24100,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1016">
+    <format dxfId="1126">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22884,7 +24119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1015">
+    <format dxfId="1125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22903,7 +24138,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1014">
+    <format dxfId="1124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22922,7 +24157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1013">
+    <format dxfId="1123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22941,7 +24176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1012">
+    <format dxfId="1122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22960,7 +24195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1011">
+    <format dxfId="1121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22979,7 +24214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1010">
+    <format dxfId="1120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22998,7 +24233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1009">
+    <format dxfId="1119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23017,7 +24252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1008">
+    <format dxfId="1118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23036,7 +24271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1007">
+    <format dxfId="1117">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23055,7 +24290,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1006">
+    <format dxfId="1116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23074,7 +24309,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1005">
+    <format dxfId="1115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23093,7 +24328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1004">
+    <format dxfId="1114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23112,7 +24347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1003">
+    <format dxfId="1113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23131,7 +24366,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1002">
+    <format dxfId="1112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23150,7 +24385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1001">
+    <format dxfId="1111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23169,7 +24404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1000">
+    <format dxfId="1110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23188,7 +24423,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="999">
+    <format dxfId="1109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23207,7 +24442,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="998">
+    <format dxfId="1108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23226,7 +24461,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="997">
+    <format dxfId="1107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23245,7 +24480,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="996">
+    <format dxfId="1106">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23264,7 +24499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="995">
+    <format dxfId="1105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23283,7 +24518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="994">
+    <format dxfId="1104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23302,7 +24537,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="993">
+    <format dxfId="1103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23321,17 +24556,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="992">
+    <format dxfId="1102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="991">
+    <format dxfId="1101">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="990">
+    <format dxfId="1100">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -23692,7 +24927,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44270</v>
+        <v>44276</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -23713,6 +24948,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -23738,6 +24974,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -23749,39 +24986,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13">
+    <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="15">
         <v>44038</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="15">
         <v>44094</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="15">
         <v>44143</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="15">
         <v>44143</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="15">
         <v>44143</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="15">
         <v>44143</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="15">
         <v>44143</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="15">
         <v>44143</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="15">
         <v>44255</v>
+      </c>
+      <c r="P5" s="15">
+        <v>44276</v>
       </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -23794,38 +25034,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+    <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="12"/>
@@ -23869,16 +25112,19 @@
       <c r="O7" s="5">
         <v>28</v>
       </c>
+      <c r="P7" s="5">
+        <v>28</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="10">
         <f t="shared" ref="U7:U38" si="0">IF(COUNTA(G7:P7)=0,"",IFERROR(LARGE(G7:P7,1),0)+IFERROR(LARGE(G7:P7,2),0)+IFERROR(LARGE(G7:P7,3),0)+IFERROR(LARGE(G7:P7,4),0)+IFERROR(LARGE(G7:P7,5),0))</f>
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="V7" s="11">
-        <f>_xlfn.RANK.EQ(U7,$U$7:$U$21)</f>
+        <f>_xlfn.RANK.EQ(U7,$U$7:$U$23)</f>
         <v>1</v>
       </c>
     </row>
@@ -23912,16 +25158,19 @@
       <c r="O8" s="5">
         <v>18</v>
       </c>
+      <c r="P8" s="5">
+        <v>12</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="10">
         <f t="shared" si="0"/>
-        <v>75.599999999999994</v>
+        <v>87.6</v>
       </c>
       <c r="V8" s="11">
-        <f t="shared" ref="V8:V21" si="1">_xlfn.RANK.EQ(U8,$U$7:$U$21)</f>
+        <f t="shared" ref="V8:V23" si="1">_xlfn.RANK.EQ(U8,$U$7:$U$23)</f>
         <v>2</v>
       </c>
     </row>
@@ -23955,6 +25204,7 @@
       <c r="O9" s="5">
         <v>12</v>
       </c>
+      <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -23996,13 +25246,16 @@
       <c r="O10" s="5">
         <v>18</v>
       </c>
+      <c r="P10" s="5">
+        <v>12</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="1"/>
@@ -24014,28 +25267,29 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G11" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5">
-        <v>16</v>
-      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="P11" s="5">
+        <v>23</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -24043,7 +25297,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="10">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="V11" s="11">
         <f t="shared" si="1"/>
@@ -24055,19 +25309,17 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="5">
-        <v>28</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -24076,13 +25328,16 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
+      <c r="P12" s="5">
+        <v>18</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="10">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="1"/>
@@ -24094,34 +25349,37 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G13" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5">
+        <v>16</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5">
-        <v>23</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="1"/>
@@ -24133,17 +25391,19 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>28</v>
+      </c>
       <c r="H14" s="5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -24152,13 +25412,14 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="1"/>
@@ -24170,36 +25431,35 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="5">
-        <v>7</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5">
-        <v>16</v>
-      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <v>18</v>
+      </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V15" s="11">
         <f t="shared" si="1"/>
@@ -24211,13 +25471,13 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G16" s="5">
         <v>7</v>
@@ -24226,21 +25486,22 @@
         <v>8</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5">
+        <v>16</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5">
-        <v>12</v>
-      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="10">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="1"/>
@@ -24252,19 +25513,19 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>172</v>
       </c>
       <c r="G17" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H17" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -24272,14 +25533,17 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="O17" s="5">
+        <v>12</v>
+      </c>
+      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="10">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="1"/>
@@ -24291,15 +25555,17 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>12</v>
+      </c>
       <c r="H18" s="5">
         <v>14</v>
       </c>
@@ -24310,13 +25576,14 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="V18" s="11">
         <f t="shared" si="1"/>
@@ -24347,6 +25614,7 @@
       <c r="O19" s="5">
         <v>12</v>
       </c>
+      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -24365,17 +25633,15 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="5">
-        <v>7</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -24384,17 +25650,20 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
+      <c r="P20" s="5">
+        <v>12</v>
+      </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V20" s="11">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -24402,13 +25671,13 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -24418,8 +25687,9 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5">
-        <v>7</v>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
+        <v>12</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -24427,20 +25697,26 @@
       <c r="T21" s="5"/>
       <c r="U21" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="V21" s="11">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -24449,140 +25725,134 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="O22" s="5">
+        <v>7</v>
+      </c>
+      <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="10" t="str">
+      <c r="U22" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V22" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="V22" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G23" s="5">
-        <v>16.8</v>
-      </c>
-      <c r="H23" s="5">
-        <v>19.2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5">
-        <v>26</v>
-      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="5">
-        <v>22.400000000000002</v>
-      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="10">
         <f t="shared" si="0"/>
-        <v>84.4</v>
+        <v>7</v>
       </c>
       <c r="V23" s="11">
-        <f>_xlfn.RANK.EQ(U23,$U$23:$U$30)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="5">
-        <v>10.799999999999999</v>
-      </c>
-      <c r="H24" s="5">
-        <v>12</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5">
-        <v>14</v>
-      </c>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="5">
-        <v>14.4</v>
-      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="10">
+      <c r="U24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>51.199999999999996</v>
-      </c>
-      <c r="V24" s="11">
-        <f t="shared" ref="V24:V30" si="2">_xlfn.RANK.EQ(U24,$U$23:$U$30)</f>
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="V24" s="11"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="G25" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="H25" s="5">
+        <v>19.2</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="O25" s="5">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="P25" s="5">
+        <v>14.4</v>
+      </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>98.800000000000011</v>
       </c>
       <c r="V25" s="11">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>_xlfn.RANK.EQ(U25,$U$25:$U$32)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -24590,25 +25860,32 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>10.799999999999999</v>
+      </c>
       <c r="H26" s="5">
-        <v>15.6</v>
+        <v>12</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5">
+        <v>14</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="P26" s="5">
         <v>14.4</v>
       </c>
       <c r="Q26" s="5"/>
@@ -24617,11 +25894,11 @@
       <c r="T26" s="5"/>
       <c r="U26" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" ref="V26:V32" si="2">_xlfn.RANK.EQ(U26,$U$25:$U$32)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -24629,36 +25906,41 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5">
+        <v>15.6</v>
+      </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5">
-        <v>20</v>
-      </c>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="O27" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="P27" s="5">
+        <v>18.400000000000002</v>
+      </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>48.4</v>
       </c>
       <c r="V27" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -24666,36 +25948,39 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5">
-        <v>20</v>
-      </c>
+      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="O28" s="5">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="P28" s="5">
+        <v>22.400000000000002</v>
+      </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="V28" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -24703,36 +25988,37 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5">
+        <v>32</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="5">
-        <v>18.400000000000002</v>
-      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="10">
         <f t="shared" si="0"/>
-        <v>18.400000000000002</v>
+        <v>32</v>
       </c>
       <c r="V29" s="11">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -24740,193 +26026,190 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="5">
-        <v>13.799999999999999</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5">
+        <v>20</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="10">
         <f t="shared" si="0"/>
-        <v>13.799999999999999</v>
+        <v>20</v>
       </c>
       <c r="V30" s="11">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5">
+        <v>20</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="10" t="str">
+      <c r="U31" s="10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V31" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="V31" s="11">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G32" s="5">
-        <v>28</v>
-      </c>
-      <c r="H32" s="5">
-        <v>20</v>
-      </c>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="5">
-        <v>16.8</v>
-      </c>
+      <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="5">
-        <v>28</v>
-      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="10">
         <f t="shared" si="0"/>
-        <v>92.8</v>
+        <v>13.799999999999999</v>
       </c>
       <c r="V32" s="11">
-        <f>_xlfn.RANK.EQ(U32,$U$32:$U$39)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="5">
-        <v>23</v>
-      </c>
-      <c r="H33" s="5">
-        <v>32</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="5">
-        <v>13.799999999999999</v>
-      </c>
+      <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="5">
-        <v>18</v>
-      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="10">
+      <c r="U33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>86.8</v>
-      </c>
-      <c r="V33" s="11">
-        <f t="shared" ref="V33:V39" si="3">_xlfn.RANK.EQ(U33,$U$32:$U$39)</f>
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="V33" s="11"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G34" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H34" s="5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5">
-        <v>10.799999999999999</v>
+        <v>13.799999999999999</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="O34" s="5">
+        <v>18</v>
+      </c>
+      <c r="P34" s="5">
+        <v>16.8</v>
+      </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="10">
         <f t="shared" si="0"/>
-        <v>54.8</v>
+        <v>103.6</v>
       </c>
       <c r="V34" s="11">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>_xlfn.RANK.EQ(U34,$U$34:$U$41)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -24934,16 +26217,16 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G35" s="5">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H35" s="5">
         <v>20</v>
@@ -24951,23 +26234,26 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="L35" s="5">
+        <v>16.8</v>
+      </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5">
-        <v>18</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="10">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>92.8</v>
       </c>
       <c r="V35" s="11">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" ref="V35:V41" si="3">_xlfn.RANK.EQ(U35,$U$34:$U$41)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -24975,40 +26261,41 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G36" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H36" s="5">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="L36" s="5">
+        <v>10.799999999999999</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="5">
-        <v>12</v>
-      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="10">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>54.8</v>
       </c>
       <c r="V36" s="11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -25016,18 +26303,20 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G37" s="5">
         <v>12</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="5">
+        <v>20</v>
+      </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -25035,19 +26324,20 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="V37" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -25055,16 +26345,16 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G38" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -25073,18 +26363,23 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="O38" s="5">
+        <v>23</v>
+      </c>
+      <c r="P38" s="5">
+        <v>13.799999999999999</v>
+      </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>48.8</v>
       </c>
       <c r="V38" s="11">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -25092,46 +26387,59 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G39" s="5">
-        <v>7</v>
-      </c>
-      <c r="H39" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H39" s="5">
+        <v>14</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
+      <c r="O39" s="5">
+        <v>12</v>
+      </c>
+      <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="10">
         <f t="shared" ref="U39:U70" si="4">IF(COUNTA(G39:P39)=0,"",IFERROR(LARGE(G39:P39,1),0)+IFERROR(LARGE(G39:P39,2),0)+IFERROR(LARGE(G39:P39,3),0)+IFERROR(LARGE(G39:P39,4),0)+IFERROR(LARGE(G39:P39,5),0))</f>
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="V39" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="5"/>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="5">
+        <v>18</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -25140,47 +26448,46 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="10" t="str">
+      <c r="U40" s="10">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V40" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="V40" s="11">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G41" s="5">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="H41" s="5">
-        <v>19.2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="5">
-        <v>13.799999999999999</v>
-      </c>
+      <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="5">
-        <v>11.200000000000001</v>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5">
+        <v>10.799999999999999</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -25188,236 +26495,237 @@
       <c r="T41" s="5"/>
       <c r="U41" s="10">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>17.799999999999997</v>
       </c>
       <c r="V41" s="11">
-        <f>_xlfn.RANK.EQ(U41,$U$41:$U$43)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="5">
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="H42" s="5">
-        <v>12</v>
-      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="5">
-        <v>10.799999999999999</v>
-      </c>
+      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="5">
-        <v>9.2000000000000011</v>
-      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="10">
+      <c r="U42" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>34.799999999999997</v>
-      </c>
-      <c r="V42" s="11">
-        <f t="shared" ref="V42:V43" si="5">_xlfn.RANK.EQ(U42,$U$41:$U$43)</f>
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="G43" s="5">
+        <v>4.8000000000000007</v>
+      </c>
       <c r="H43" s="5">
-        <v>15.6</v>
+        <v>19.2</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5">
-        <v>16.8</v>
+        <v>13.799999999999999</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="O43" s="5">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="P43" s="5">
+        <v>3.6</v>
+      </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="10">
         <f t="shared" si="4"/>
-        <v>32.4</v>
+        <v>52.6</v>
       </c>
       <c r="V43" s="11">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>_xlfn.RANK.EQ(U43,$U$43:$U$45)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="H44" s="5">
+        <v>12</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="L44" s="5">
+        <v>10.799999999999999</v>
+      </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="O44" s="5">
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="10" t="str">
+      <c r="U44" s="10">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V44" s="11"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="V44" s="11">
+        <f t="shared" ref="V44:V45" si="5">_xlfn.RANK.EQ(U44,$U$43:$U$45)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G45" s="5">
-        <v>14.4</v>
-      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="5">
         <v>15.6</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5">
-        <v>32</v>
-      </c>
+      <c r="L45" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="5">
-        <v>18</v>
-      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="10">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>32.4</v>
       </c>
       <c r="V45" s="11">
-        <f>_xlfn.RANK.EQ(U45,$U$45:$U$52)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="5">
-        <v>14.4</v>
-      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5">
-        <v>20</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="5">
-        <v>18</v>
-      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="10">
+      <c r="U46" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>52.4</v>
-      </c>
-      <c r="V46" s="11">
-        <f t="shared" ref="V46:V52" si="6">_xlfn.RANK.EQ(U46,$U$45:$U$52)</f>
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="V46" s="11"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5">
+        <v>14.4</v>
+      </c>
       <c r="H47" s="5">
-        <v>19.2</v>
+        <v>15.6</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="M47" s="5">
+        <v>32</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="P47" s="5">
+        <v>18</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -25425,11 +26733,11 @@
       <c r="T47" s="5"/>
       <c r="U47" s="10">
         <f t="shared" si="4"/>
-        <v>47.2</v>
+        <v>98</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f>_xlfn.RANK.EQ(U47,$U$47:$U$55)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -25437,16 +26745,16 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G48" s="5">
-        <v>18.400000000000002</v>
+        <v>14.4</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -25454,21 +26762,26 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="O48" s="5">
+        <v>18</v>
+      </c>
+      <c r="P48" s="5">
+        <v>18</v>
+      </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="10">
         <f t="shared" si="4"/>
-        <v>44.400000000000006</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="V48" s="11">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" ref="V48:V55" si="6">_xlfn.RANK.EQ(U48,$U$47:$U$55)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -25476,40 +26789,39 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="5">
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H49" s="5">
-        <v>12</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5">
-        <v>14</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="O49" s="5">
+        <v>23</v>
+      </c>
+      <c r="P49" s="5">
+        <v>28</v>
+      </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="10">
         <f t="shared" si="4"/>
-        <v>35.6</v>
+        <v>51</v>
       </c>
       <c r="V49" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -25517,24 +26829,31 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="G50" s="5">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="H50" s="5">
+        <v>12</v>
+      </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="M50" s="5">
+        <v>14</v>
+      </c>
       <c r="N50" s="5"/>
-      <c r="O50" s="5">
-        <v>23</v>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5">
+        <v>12</v>
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -25542,11 +26861,11 @@
       <c r="T50" s="5"/>
       <c r="U50" s="10">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>47.6</v>
       </c>
       <c r="V50" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
@@ -25554,36 +26873,39 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="H51" s="5">
+        <v>19.2</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5">
-        <v>20</v>
-      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
+      <c r="O51" s="5">
+        <v>28</v>
+      </c>
+      <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="10">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>47.2</v>
       </c>
       <c r="V51" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
@@ -25591,45 +26913,54 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G52" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="G52" s="5">
+        <v>18.400000000000002</v>
+      </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
+      <c r="M52" s="5">
+        <v>26</v>
+      </c>
       <c r="N52" s="5"/>
-      <c r="O52" s="5">
-        <v>12</v>
-      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="10">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>44.400000000000006</v>
       </c>
       <c r="V52" s="11">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -25638,46 +26969,49 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5">
+        <v>12</v>
+      </c>
+      <c r="P53" s="5">
+        <v>12</v>
+      </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="10" t="str">
+      <c r="U53" s="10">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V53" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="V53" s="11">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G54" s="5"/>
-      <c r="H54" s="5">
-        <v>15.6</v>
-      </c>
-      <c r="I54" s="5">
-        <v>15.6</v>
-      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="5">
-        <v>22.400000000000002</v>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5">
+        <v>23</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -25685,11 +27019,11 @@
       <c r="T54" s="5"/>
       <c r="U54" s="10">
         <f t="shared" si="4"/>
-        <v>53.6</v>
+        <v>23</v>
       </c>
       <c r="V54" s="11">
-        <f>_xlfn.RANK.EQ(U54,$U$54:$U$58)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
@@ -25697,108 +27031,98 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="5">
-        <v>11.200000000000001</v>
-      </c>
-      <c r="H55" s="5">
-        <v>19.2</v>
-      </c>
-      <c r="I55" s="5">
-        <v>19.2</v>
-      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
+      <c r="M55" s="5">
+        <v>20</v>
+      </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="10">
         <f t="shared" si="4"/>
-        <v>49.6</v>
+        <v>20</v>
       </c>
       <c r="V55" s="11">
-        <f t="shared" ref="V55:V58" si="7">_xlfn.RANK.EQ(U55,$U$54:$U$58)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="5">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="H56" s="5">
-        <v>12</v>
-      </c>
-      <c r="I56" s="5">
-        <v>12</v>
-      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-      <c r="O56" s="5">
-        <v>14.4</v>
-      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="10">
+      <c r="U56" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>43.2</v>
-      </c>
-      <c r="V56" s="11">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="V56" s="11"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D57" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="H57" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="I57" s="5">
+        <v>15.6</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5">
-        <v>18.400000000000002</v>
+        <v>22.400000000000002</v>
+      </c>
+      <c r="P57" s="5">
+        <v>22.400000000000002</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -25806,11 +27130,11 @@
       <c r="T57" s="5"/>
       <c r="U57" s="10">
         <f t="shared" si="4"/>
-        <v>18.400000000000002</v>
+        <v>76</v>
       </c>
       <c r="V57" s="11">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f>_xlfn.RANK.EQ(U57,$U$57:$U$62)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
@@ -25818,17 +27142,23 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="G58" s="5">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H58" s="5">
+        <v>12</v>
+      </c>
+      <c r="I58" s="5">
+        <v>12</v>
+      </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -25837,76 +27167,90 @@
       <c r="O58" s="5">
         <v>14.4</v>
       </c>
+      <c r="P58" s="5">
+        <v>14.4</v>
+      </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="10">
         <f t="shared" si="4"/>
-        <v>14.4</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="V58" s="11">
-        <f t="shared" si="7"/>
-        <v>5</v>
+        <f t="shared" ref="V58:V62" si="7">_xlfn.RANK.EQ(U58,$U$57:$U$62)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="D59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" s="5">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="H59" s="5">
+        <v>19.2</v>
+      </c>
+      <c r="I59" s="5">
+        <v>19.2</v>
+      </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="10" t="str">
+      <c r="U59" s="10">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V59" s="11"/>
+        <v>49.6</v>
+      </c>
+      <c r="V59" s="11">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G60" s="5">
-        <v>9.2000000000000011</v>
-      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="5">
-        <v>1</v>
-      </c>
+      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5">
-        <v>1</v>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="P60" s="5">
+        <v>18.400000000000002</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -25914,11 +27258,11 @@
       <c r="T60" s="5"/>
       <c r="U60" s="10">
         <f t="shared" si="4"/>
-        <v>11.200000000000001</v>
+        <v>36.800000000000004</v>
       </c>
       <c r="V60" s="11">
-        <f>_xlfn.RANK.EQ(U60,$U$60:$U$63)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
@@ -25926,17 +27270,15 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G61" s="5">
-        <v>11.200000000000001</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -25944,18 +27286,21 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
+      <c r="O61" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="10">
         <f t="shared" si="4"/>
-        <v>11.200000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="V61" s="11">
-        <f t="shared" ref="V61:V63" si="8">_xlfn.RANK.EQ(U61,$U$60:$U$63)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
@@ -25963,13 +27308,13 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -25979,8 +27324,9 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="5">
-        <v>1</v>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5">
+        <v>14.4</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
@@ -25988,30 +27334,22 @@
       <c r="T62" s="5"/>
       <c r="U62" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>14.4</v>
       </c>
       <c r="V62" s="11">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
+      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -26019,85 +27357,98 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="10">
+      <c r="U63" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V63" s="11">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="V63" s="11"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="5"/>
+      <c r="B64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" s="5">
+        <v>9.2000000000000011</v>
+      </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
+      <c r="L64" s="5">
+        <v>1</v>
+      </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
+      <c r="O64" s="5">
+        <v>1</v>
+      </c>
+      <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="10" t="str">
+      <c r="U64" s="10">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V64" s="11"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="V64" s="11">
+        <f>_xlfn.RANK.EQ(U64,$U$64:$U$67)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G65" s="5">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="5">
-        <v>1</v>
-      </c>
+      <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
-      <c r="O65" s="5">
-        <v>1</v>
-      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="10">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="V65" s="11">
-        <f>_xlfn.RANK.EQ(U65,$U$65:$U$65)</f>
+        <f t="shared" ref="V65:V67" si="8">_xlfn.RANK.EQ(U65,$U$64:$U$67)</f>
         <v>1</v>
       </c>
     </row>
@@ -26105,9 +27456,15 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -26116,226 +27473,209 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
+      <c r="O66" s="5">
+        <v>1</v>
+      </c>
+      <c r="P66" s="5">
+        <v>1</v>
+      </c>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="10" t="str">
+      <c r="U66" s="10">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="V66" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="V66" s="11">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5">
-        <v>25.6</v>
+        <v>1</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="5">
-        <v>19.2</v>
-      </c>
-      <c r="O67" s="5">
-        <v>28</v>
-      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="10">
         <f t="shared" si="4"/>
-        <v>72.8</v>
+        <v>1</v>
       </c>
       <c r="V67" s="11">
-        <f>_xlfn.RANK.EQ(U67,$U$67:$U$76)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G68" s="5">
-        <v>23</v>
-      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="5">
-        <v>15.6</v>
-      </c>
-      <c r="O68" s="5">
-        <v>12</v>
-      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="10">
+      <c r="U68" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>50.6</v>
-      </c>
-      <c r="V68" s="11">
-        <f t="shared" ref="V68:V76" si="9">_xlfn.RANK.EQ(U68,$U$67:$U$76)</f>
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="V68" s="11"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D69" s="2" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" s="5">
-        <v>18</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G69" s="5"/>
       <c r="H69" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
+      <c r="L69" s="5">
+        <v>1</v>
+      </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="10">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="V69" s="11">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f>_xlfn.RANK.EQ(U69,$U$69:$U$69)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G70" s="5">
-        <v>12</v>
-      </c>
-      <c r="H70" s="5">
-        <v>11.200000000000001</v>
-      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="5">
-        <v>12</v>
-      </c>
-      <c r="O70" s="5">
-        <v>7</v>
-      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="10">
+      <c r="U70" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>42.2</v>
-      </c>
-      <c r="V70" s="11">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
+        <v/>
+      </c>
+      <c r="V70" s="11"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D71" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5">
-        <v>16</v>
+        <v>25.6</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="N71" s="5">
+        <v>19.2</v>
+      </c>
       <c r="O71" s="5">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="P71" s="5">
+        <v>28</v>
       </c>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="10">
-        <f t="shared" ref="U71:U104" si="10">IF(COUNTA(G71:P71)=0,"",IFERROR(LARGE(G71:P71,1),0)+IFERROR(LARGE(G71:P71,2),0)+IFERROR(LARGE(G71:P71,3),0)+IFERROR(LARGE(G71:P71,4),0)+IFERROR(LARGE(G71:P71,5),0))</f>
-        <v>28</v>
+        <f t="shared" ref="U71:U104" si="9">IF(COUNTA(G71:P71)=0,"",IFERROR(LARGE(G71:P71,1),0)+IFERROR(LARGE(G71:P71,2),0)+IFERROR(LARGE(G71:P71,3),0)+IFERROR(LARGE(G71:P71,4),0)+IFERROR(LARGE(G71:P71,5),0))</f>
+        <v>100.8</v>
       </c>
       <c r="V71" s="11">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f>_xlfn.RANK.EQ(U71,$U$71:$U$80)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -26343,16 +27683,20 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="G72" s="5">
+        <v>18</v>
+      </c>
+      <c r="H72" s="5">
+        <v>16</v>
+      </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -26360,19 +27704,22 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="P72" s="5">
+        <v>12</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="10">
-        <f t="shared" si="10"/>
-        <v>23</v>
+        <f t="shared" si="9"/>
+        <v>58</v>
       </c>
       <c r="V72" s="11">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" ref="V72:V80" si="10">_xlfn.RANK.EQ(U72,$U$71:$U$80)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -26380,36 +27727,45 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="G73" s="5">
+        <v>12</v>
+      </c>
+      <c r="H73" s="5">
+        <v>11.200000000000001</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="N73" s="5">
+        <v>12</v>
+      </c>
       <c r="O73" s="5">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="P73" s="5">
+        <v>12</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="10">
+        <f t="shared" si="9"/>
+        <v>54.2</v>
+      </c>
+      <c r="V73" s="11">
         <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="V73" s="11">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -26417,36 +27773,41 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G74" s="5"/>
+      <c r="G74" s="5">
+        <v>23</v>
+      </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="N74" s="5">
+        <v>15.6</v>
+      </c>
       <c r="O74" s="5">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="10">
+        <f t="shared" si="9"/>
+        <v>50.6</v>
+      </c>
+      <c r="V74" s="11">
         <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="V74" s="11">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -26454,17 +27815,15 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G75" s="5">
-        <v>18</v>
-      </c>
+      <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -26472,18 +27831,23 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
+      <c r="O75" s="5">
+        <v>23</v>
+      </c>
+      <c r="P75" s="5">
+        <v>23</v>
+      </c>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="10">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="V75" s="11">
         <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="V75" s="11">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -26491,17 +27855,15 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G76" s="5">
-        <v>12</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -26509,27 +27871,38 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
+      <c r="O76" s="5">
+        <v>18</v>
+      </c>
+      <c r="P76" s="5">
+        <v>18</v>
+      </c>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="10">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="V76" s="11">
         <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="V76" s="11">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -26538,58 +27911,63 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
+      <c r="O77" s="5">
+        <v>18</v>
+      </c>
+      <c r="P77" s="5">
+        <v>18</v>
+      </c>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
-      <c r="U77" s="10" t="str">
+      <c r="U77" s="10">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="V77" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V77" s="11"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G78" s="5">
-        <v>5.6000000000000005</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G78" s="5"/>
       <c r="H78" s="5">
-        <v>5.2</v>
+        <v>16</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="5">
-        <v>4</v>
-      </c>
-      <c r="O78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5">
+        <v>12</v>
+      </c>
+      <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="10">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="V78" s="11">
         <f t="shared" si="10"/>
-        <v>14.8</v>
-      </c>
-      <c r="V78" s="11">
-        <f>_xlfn.RANK.EQ(U78,$U$78:$U$79)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -26597,15 +27975,17 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G79" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="G79" s="5">
+        <v>18</v>
+      </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -26613,30 +27993,37 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
-      <c r="O79" s="5">
-        <v>2.4000000000000004</v>
-      </c>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="10">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="V79" s="11">
         <f t="shared" si="10"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="V79" s="11">
-        <f>_xlfn.RANK.EQ(U79,$U$78:$U$79)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="5"/>
+      <c r="D80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80" s="5">
+        <v>12</v>
+      </c>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -26645,102 +28032,91 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
-      <c r="U80" s="10" t="str">
+      <c r="U80" s="10">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="V80" s="11">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V80" s="11"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G81" s="5">
-        <v>16.8</v>
-      </c>
-      <c r="H81" s="5">
-        <v>25.6</v>
-      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="5">
-        <v>1</v>
-      </c>
+      <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
-      <c r="U81" s="10">
-        <f t="shared" si="10"/>
-        <v>43.400000000000006</v>
-      </c>
-      <c r="V81" s="11">
-        <f>_xlfn.RANK.EQ(U81,$U$81:$U$86)</f>
-        <v>1</v>
-      </c>
+      <c r="U81" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V81" s="11"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D82" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G82" s="5">
-        <v>13.799999999999999</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="H82" s="5">
-        <v>16</v>
+        <v>5.2</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="5">
-        <v>1</v>
-      </c>
+      <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5">
-        <v>1</v>
+      <c r="N82" s="5">
+        <v>4</v>
+      </c>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5">
+        <v>11.200000000000001</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="10">
-        <f t="shared" si="10"/>
-        <v>31.799999999999997</v>
+        <f t="shared" si="9"/>
+        <v>26</v>
       </c>
       <c r="V82" s="11">
-        <f t="shared" ref="V82:V86" si="11">_xlfn.RANK.EQ(U82,$U$81:$U$86)</f>
-        <v>2</v>
+        <f>_xlfn.RANK.EQ(U82,$U$82:$U$83)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -26748,57 +28124,50 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G83" s="5"/>
-      <c r="H83" s="5">
-        <v>20.8</v>
-      </c>
+      <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="5">
-        <v>1</v>
-      </c>
+      <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
+      <c r="O83" s="5">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="P83" s="5">
+        <v>9.2000000000000011</v>
+      </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
       <c r="U83" s="10">
-        <f t="shared" si="10"/>
-        <v>21.8</v>
+        <f t="shared" si="9"/>
+        <v>11.600000000000001</v>
       </c>
       <c r="V83" s="11">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>_xlfn.RANK.EQ(U83,$U$82:$U$83)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="5">
-        <v>16</v>
-      </c>
+      <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -26806,54 +28175,61 @@
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
-      <c r="U84" s="10">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="V84" s="11">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
+      <c r="U84" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V84" s="11"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G85" s="5">
-        <v>10.799999999999999</v>
-      </c>
-      <c r="H85" s="5"/>
+        <v>16.8</v>
+      </c>
+      <c r="H85" s="5">
+        <v>25.6</v>
+      </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+      <c r="L85" s="5">
+        <v>1</v>
+      </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="10">
-        <f t="shared" si="10"/>
-        <v>10.799999999999999</v>
+        <f t="shared" si="9"/>
+        <v>43.400000000000006</v>
       </c>
       <c r="V85" s="11">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f>_xlfn.RANK.EQ(U85,$U$85:$U$90)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -26861,23 +28237,32 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
+      <c r="G86" s="5">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="H86" s="5">
+        <v>16</v>
+      </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
+      <c r="L86" s="5">
+        <v>1</v>
+      </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5">
+        <v>1</v>
+      </c>
+      <c r="P86" s="5">
         <v>1</v>
       </c>
       <c r="Q86" s="5"/>
@@ -26885,158 +28270,273 @@
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>32.799999999999997</v>
       </c>
       <c r="V86" s="11">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" ref="V86:V90" si="11">_xlfn.RANK.EQ(U86,$U$85:$U$90)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="H87" s="5">
+        <v>20.8</v>
+      </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+      <c r="L87" s="5">
+        <v>1</v>
+      </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
-      <c r="U87" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V87" s="11"/>
+      <c r="U87" s="10">
+        <f t="shared" si="9"/>
+        <v>21.8</v>
+      </c>
+      <c r="V87" s="11">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5">
+        <v>16</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5">
+        <v>1</v>
+      </c>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
-      <c r="U88" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V88" s="11"/>
+      <c r="U88" s="10">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="V88" s="11">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G89" s="5">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V89" s="11"/>
+      <c r="U89" s="10">
+        <f t="shared" si="9"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="V89" s="11">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5">
+        <v>1</v>
+      </c>
+      <c r="P90" s="5">
+        <v>1</v>
+      </c>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
-      <c r="U90" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="V90" s="11"/>
+      <c r="U90" s="10">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V90" s="11">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
       <c r="U91" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U92" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U93" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U94" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U95" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U96" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U97" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U98" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U99" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U100" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U101" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U102" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U103" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U104" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -27082,7 +28582,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44270</v>
+        <v>44276</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -27127,20 +28627,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13">
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="15">
         <v>44059</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="15">
         <v>44129</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -27152,20 +28652,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -29462,7 +30962,9 @@
   </sheetPr>
   <dimension ref="A2:O104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29488,7 +30990,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44270</v>
+        <v>44276</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -29533,20 +31035,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13">
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="15">
         <v>44087</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="15">
         <v>44122</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="15">
         <v>44269</v>
       </c>
       <c r="J5" s="13"/>
@@ -29560,20 +31062,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="12"/>

--- a/2021/FSARankings2021DisplayV2.xlsx
+++ b/2021/FSARankings2021DisplayV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4C0893-F589-4222-9D0A-E2CE0334A8DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C30E4-AC1C-4A9B-B7C7-7CEC2A792079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2F090B5A-58A0-4679-AF74-9DED37E728B1}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -771,9 +771,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,3833 +780,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1100">
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="330">
     <dxf>
       <numFmt numFmtId="167" formatCode="0.0"/>
     </dxf>
@@ -14883,7 +11061,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C807EE97-4FCD-47D4-8DB6-23B875D86351}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C807EE97-4FCD-47D4-8DB6-23B875D86351}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:M92" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -15688,7 +11866,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="1099">
+    <format dxfId="329">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15697,26 +11875,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1098">
+    <format dxfId="328">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1097">
+    <format dxfId="327">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1096">
+    <format dxfId="326">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1095">
+    <format dxfId="325">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1094">
+    <format dxfId="324">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1093">
+    <format dxfId="323">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -15724,7 +11902,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1092">
+    <format dxfId="322">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -15735,7 +11913,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1091">
+    <format dxfId="321">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -15753,7 +11931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1090">
+    <format dxfId="320">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -15783,7 +11961,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1089">
+    <format dxfId="319">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -15808,7 +11986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1088">
+    <format dxfId="318">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -15830,7 +12008,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1087">
+    <format dxfId="317">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -15851,7 +12029,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1086">
+    <format dxfId="316">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -15870,7 +12048,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1085">
+    <format dxfId="315">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -15886,7 +12064,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1084">
+    <format dxfId="314">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -15903,7 +12081,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1083">
+    <format dxfId="313">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -15927,7 +12105,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1082">
+    <format dxfId="312">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -15950,7 +12128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1081">
+    <format dxfId="311">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -15971,7 +12149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1080">
+    <format dxfId="310">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -15988,7 +12166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1079">
+    <format dxfId="309">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -16008,7 +12186,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1078">
+    <format dxfId="308">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -16028,7 +12206,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1077">
+    <format dxfId="307">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -16047,7 +12225,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1076">
+    <format dxfId="306">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16066,7 +12244,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1075">
+    <format dxfId="305">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16085,7 +12263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1074">
+    <format dxfId="304">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16104,7 +12282,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1073">
+    <format dxfId="303">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16123,7 +12301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1072">
+    <format dxfId="302">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16142,7 +12320,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1071">
+    <format dxfId="301">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16161,7 +12339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1070">
+    <format dxfId="300">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16180,7 +12358,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1069">
+    <format dxfId="299">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16199,7 +12377,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1068">
+    <format dxfId="298">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16218,7 +12396,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1067">
+    <format dxfId="297">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16237,7 +12415,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1066">
+    <format dxfId="296">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16256,7 +12434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1065">
+    <format dxfId="295">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16275,7 +12453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1064">
+    <format dxfId="294">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16294,7 +12472,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1063">
+    <format dxfId="293">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16313,7 +12491,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1062">
+    <format dxfId="292">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16332,7 +12510,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1061">
+    <format dxfId="291">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16351,7 +12529,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1060">
+    <format dxfId="290">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16370,7 +12548,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1059">
+    <format dxfId="289">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16389,7 +12567,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1058">
+    <format dxfId="288">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16408,7 +12586,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1057">
+    <format dxfId="287">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16427,7 +12605,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1056">
+    <format dxfId="286">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16446,7 +12624,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1055">
+    <format dxfId="285">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16465,7 +12643,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1054">
+    <format dxfId="284">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16484,7 +12662,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1053">
+    <format dxfId="283">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16503,7 +12681,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1052">
+    <format dxfId="282">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16522,7 +12700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1051">
+    <format dxfId="281">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16541,7 +12719,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1050">
+    <format dxfId="280">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -16561,7 +12739,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1049">
+    <format dxfId="279">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16580,7 +12758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1048">
+    <format dxfId="278">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16599,7 +12777,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1047">
+    <format dxfId="277">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16618,7 +12796,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1046">
+    <format dxfId="276">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16637,7 +12815,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1045">
+    <format dxfId="275">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16656,7 +12834,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1044">
+    <format dxfId="274">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16675,7 +12853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1043">
+    <format dxfId="273">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16694,7 +12872,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1042">
+    <format dxfId="272">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16713,7 +12891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1041">
+    <format dxfId="271">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16732,7 +12910,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1040">
+    <format dxfId="270">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16751,7 +12929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1039">
+    <format dxfId="269">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16770,7 +12948,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1038">
+    <format dxfId="268">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16789,7 +12967,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1037">
+    <format dxfId="267">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16808,7 +12986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1036">
+    <format dxfId="266">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16827,7 +13005,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1035">
+    <format dxfId="265">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16846,7 +13024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1034">
+    <format dxfId="264">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16865,7 +13043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1033">
+    <format dxfId="263">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16884,7 +13062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1032">
+    <format dxfId="262">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16903,7 +13081,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1031">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16922,7 +13100,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1030">
+    <format dxfId="260">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16941,7 +13119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1029">
+    <format dxfId="259">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16960,7 +13138,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1028">
+    <format dxfId="258">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16979,7 +13157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1027">
+    <format dxfId="257">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -16998,7 +13176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1026">
+    <format dxfId="256">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17017,7 +13195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1025">
+    <format dxfId="255">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17036,7 +13214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1024">
+    <format dxfId="254">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17055,7 +13233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1023">
+    <format dxfId="253">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17074,7 +13252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1022">
+    <format dxfId="252">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17093,7 +13271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1021">
+    <format dxfId="251">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17112,7 +13290,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1020">
+    <format dxfId="250">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17131,7 +13309,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1019">
+    <format dxfId="249">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17150,7 +13328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1018">
+    <format dxfId="248">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17169,7 +13347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1017">
+    <format dxfId="247">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17188,7 +13366,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1016">
+    <format dxfId="246">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17207,7 +13385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1015">
+    <format dxfId="245">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17226,7 +13404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1014">
+    <format dxfId="244">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17245,7 +13423,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1013">
+    <format dxfId="243">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17264,7 +13442,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1012">
+    <format dxfId="242">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17283,7 +13461,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1011">
+    <format dxfId="241">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17302,7 +13480,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1010">
+    <format dxfId="240">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17321,7 +13499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1009">
+    <format dxfId="239">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17340,7 +13518,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1008">
+    <format dxfId="238">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17359,7 +13537,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1007">
+    <format dxfId="237">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17378,7 +13556,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1006">
+    <format dxfId="236">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17397,7 +13575,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1005">
+    <format dxfId="235">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17416,7 +13594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1004">
+    <format dxfId="234">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17435,7 +13613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1003">
+    <format dxfId="233">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17454,7 +13632,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1002">
+    <format dxfId="232">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17473,7 +13651,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1001">
+    <format dxfId="231">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17492,7 +13670,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1000">
+    <format dxfId="230">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17511,7 +13689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="999">
+    <format dxfId="229">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17530,7 +13708,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="998">
+    <format dxfId="228">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17549,7 +13727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="997">
+    <format dxfId="227">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17568,7 +13746,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="996">
+    <format dxfId="226">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17587,7 +13765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="995">
+    <format dxfId="225">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17606,7 +13784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="994">
+    <format dxfId="224">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17625,7 +13803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="993">
+    <format dxfId="223">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -17644,17 +13822,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="992">
+    <format dxfId="222">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="991">
+    <format dxfId="221">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="990">
+    <format dxfId="220">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17688,7 +13866,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204240A0-B4DA-427F-9AD7-7A43D8A75C6A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204240A0-B4DA-427F-9AD7-7A43D8A75C6A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:I76" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -18392,7 +14570,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="330">
+    <format dxfId="219">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18401,26 +14579,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="331">
+    <format dxfId="218">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="332">
+    <format dxfId="217">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="333">
+    <format dxfId="216">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="334">
+    <format dxfId="215">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="335">
+    <format dxfId="214">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="336">
+    <format dxfId="213">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -18428,7 +14606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="337">
+    <format dxfId="212">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -18439,7 +14617,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="338">
+    <format dxfId="211">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -18457,7 +14635,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="339">
+    <format dxfId="210">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -18487,7 +14665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="340">
+    <format dxfId="209">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -18512,7 +14690,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="341">
+    <format dxfId="208">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -18534,7 +14712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="342">
+    <format dxfId="207">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -18555,7 +14733,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="343">
+    <format dxfId="206">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -18574,7 +14752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="344">
+    <format dxfId="205">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -18590,7 +14768,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="345">
+    <format dxfId="204">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -18607,7 +14785,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="346">
+    <format dxfId="203">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -18631,7 +14809,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="347">
+    <format dxfId="202">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -18654,7 +14832,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="348">
+    <format dxfId="201">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -18675,7 +14853,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="349">
+    <format dxfId="200">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -18692,7 +14870,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="350">
+    <format dxfId="199">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -18712,7 +14890,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="351">
+    <format dxfId="198">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -18732,7 +14910,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="352">
+    <format dxfId="197">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -18751,7 +14929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="353">
+    <format dxfId="196">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18770,7 +14948,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="354">
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18789,7 +14967,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="355">
+    <format dxfId="194">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18808,7 +14986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="356">
+    <format dxfId="193">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18827,7 +15005,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="357">
+    <format dxfId="192">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18846,7 +15024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="358">
+    <format dxfId="191">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18865,7 +15043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="359">
+    <format dxfId="190">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18884,7 +15062,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="360">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18903,7 +15081,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="361">
+    <format dxfId="188">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18922,7 +15100,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="362">
+    <format dxfId="187">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18941,7 +15119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="363">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18960,7 +15138,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="364">
+    <format dxfId="185">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18979,7 +15157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="365">
+    <format dxfId="184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -18998,7 +15176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="366">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19017,7 +15195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="367">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19036,7 +15214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="368">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19055,7 +15233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="369">
+    <format dxfId="180">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19074,7 +15252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="370">
+    <format dxfId="179">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19093,7 +15271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="371">
+    <format dxfId="178">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19112,7 +15290,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="372">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19131,7 +15309,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="373">
+    <format dxfId="176">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19150,7 +15328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="374">
+    <format dxfId="175">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19169,7 +15347,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="375">
+    <format dxfId="174">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19188,7 +15366,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="376">
+    <format dxfId="173">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19207,7 +15385,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="377">
+    <format dxfId="172">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19226,7 +15404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="378">
+    <format dxfId="171">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19245,7 +15423,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="379">
+    <format dxfId="170">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -19265,7 +15443,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="380">
+    <format dxfId="169">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19284,7 +15462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="381">
+    <format dxfId="168">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19303,7 +15481,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="382">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19322,7 +15500,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="383">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19341,7 +15519,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="384">
+    <format dxfId="165">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19360,7 +15538,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="385">
+    <format dxfId="164">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19379,7 +15557,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="386">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19398,7 +15576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="387">
+    <format dxfId="162">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19417,7 +15595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="388">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19436,7 +15614,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="389">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19455,7 +15633,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="390">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19474,7 +15652,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="391">
+    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19493,7 +15671,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="392">
+    <format dxfId="157">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19512,7 +15690,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="393">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19531,7 +15709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="394">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19550,7 +15728,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="395">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19569,7 +15747,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="396">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19588,7 +15766,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="397">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19607,7 +15785,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="398">
+    <format dxfId="151">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19626,7 +15804,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="399">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19645,7 +15823,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="400">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19664,7 +15842,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="401">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19683,7 +15861,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="402">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19702,7 +15880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="403">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19721,7 +15899,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="404">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19740,7 +15918,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="405">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19759,7 +15937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="406">
+    <format dxfId="143">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19778,7 +15956,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="407">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19797,7 +15975,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="408">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19816,7 +15994,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="409">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19835,7 +16013,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="410">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19854,7 +16032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="411">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19873,7 +16051,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="412">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19892,7 +16070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="413">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19911,7 +16089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="414">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19930,7 +16108,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="415">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19949,7 +16127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="416">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19968,7 +16146,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="417">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19987,7 +16165,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="418">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20006,7 +16184,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="419">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20025,7 +16203,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="420">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20044,7 +16222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="421">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20063,7 +16241,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="422">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20082,7 +16260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="423">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20101,7 +16279,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="424">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20120,7 +16298,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="425">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20139,7 +16317,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="426">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20158,7 +16336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="427">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20177,7 +16355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="428">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20196,7 +16374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="429">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20215,7 +16393,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="430">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20234,7 +16412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="431">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20253,7 +16431,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="432">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20272,7 +16450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="433">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20291,7 +16469,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="434">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20310,7 +16488,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="435">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20329,7 +16507,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="436">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20348,17 +16526,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="437">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="438">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="439">
+    <format dxfId="110">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20392,7 +16570,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14087339-F950-44E8-9D3E-B46B04971F74}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14087339-F950-44E8-9D3E-B46B04971F74}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:I86" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -21154,7 +17332,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="989">
+    <format dxfId="109">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21163,26 +17341,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="988">
+    <format dxfId="108">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="987">
+    <format dxfId="107">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="986">
+    <format dxfId="106">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="985">
+    <format dxfId="105">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="984">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="983">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -21190,7 +17368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="982">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -21201,7 +17379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="981">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -21219,7 +17397,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="980">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -21249,7 +17427,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="979">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -21274,7 +17452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="978">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -21296,7 +17474,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="977">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -21317,7 +17495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="976">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -21336,7 +17514,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="975">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -21352,7 +17530,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="974">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -21369,7 +17547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="973">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -21393,7 +17571,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="972">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -21416,7 +17594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="971">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -21437,7 +17615,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="970">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -21454,7 +17632,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="969">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -21474,7 +17652,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="968">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -21494,7 +17672,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="967">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -21513,7 +17691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="966">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21532,7 +17710,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="965">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21551,7 +17729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="964">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21570,7 +17748,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="963">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21589,7 +17767,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="962">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21608,7 +17786,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="961">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21627,7 +17805,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="960">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21646,7 +17824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="959">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21665,7 +17843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="958">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21684,7 +17862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="957">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21703,7 +17881,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="956">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21722,7 +17900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="955">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21741,7 +17919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="954">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21760,7 +17938,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="953">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21779,7 +17957,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="952">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21798,7 +17976,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="951">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21817,7 +17995,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="950">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21836,7 +18014,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="949">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21855,7 +18033,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="948">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21874,7 +18052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="947">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21893,7 +18071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="946">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21912,7 +18090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="945">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21931,7 +18109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="944">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21950,7 +18128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="943">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21969,7 +18147,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="942">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -21988,7 +18166,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="941">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22007,7 +18185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="940">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -22027,7 +18205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="939">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22046,7 +18224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="938">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22065,7 +18243,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="937">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22084,7 +18262,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="936">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22103,7 +18281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="935">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22122,7 +18300,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="934">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22141,7 +18319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="933">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22160,7 +18338,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="932">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22179,7 +18357,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="931">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22198,7 +18376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="930">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22217,7 +18395,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="929">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22236,7 +18414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="928">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22255,7 +18433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="927">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22274,7 +18452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="926">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22293,7 +18471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="925">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22312,7 +18490,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="924">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22331,7 +18509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="923">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22350,7 +18528,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="922">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22369,7 +18547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="921">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22388,7 +18566,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="920">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22407,7 +18585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="919">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22426,7 +18604,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="918">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22445,7 +18623,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="917">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22464,7 +18642,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="916">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22483,7 +18661,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="915">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22502,7 +18680,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="914">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22521,7 +18699,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="913">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22540,7 +18718,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="912">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22559,7 +18737,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="911">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22578,7 +18756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="910">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22597,7 +18775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="909">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22616,7 +18794,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="908">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22635,7 +18813,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="907">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22654,7 +18832,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="906">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22673,7 +18851,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="905">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22692,7 +18870,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="904">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22711,7 +18889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="903">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22730,7 +18908,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="902">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22749,7 +18927,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="901">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22768,7 +18946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="900">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22787,7 +18965,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="899">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22806,7 +18984,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="898">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22825,7 +19003,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="897">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22844,7 +19022,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="896">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22863,7 +19041,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="895">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22882,7 +19060,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="894">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22901,7 +19079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="893">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22920,7 +19098,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="892">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22939,7 +19117,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="891">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22958,7 +19136,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="890">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22977,7 +19155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="889">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22996,7 +19174,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="888">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23015,7 +19193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="887">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23034,7 +19212,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="886">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23053,7 +19231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="885">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23072,7 +19250,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="884">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23091,7 +19269,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="883">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23110,17 +19288,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="882">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="881">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="880">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -23453,7 +19631,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:V104"/>
+  <dimension ref="A2:V92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23475,11 +19653,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
+      <c r="A2" s="18" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44323</v>
@@ -23538,36 +19716,36 @@
       </c>
     </row>
     <row r="5" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16">
         <v>44038</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>44094</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>44143</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>44143</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <v>44255</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>44276</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>44319</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -23580,36 +19758,36 @@
       </c>
     </row>
     <row r="6" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
@@ -26065,7 +22243,7 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="10">
-        <f t="shared" ref="U72:U104" si="8">IF(COUNTA(G72:P72)=0,"",IFERROR(LARGE(G72:M72,1),0)+IFERROR(LARGE(G72:M72,2),0)+IFERROR(LARGE(G72:M72,3),0)+IFERROR(LARGE(G72:M72,4),0)+IFERROR(LARGE(G72:M72,5),0))</f>
+        <f t="shared" ref="U72:U91" si="8">IF(COUNTA(G72:P72)=0,"",IFERROR(LARGE(G72:M72,1),0)+IFERROR(LARGE(G72:M72,2),0)+IFERROR(LARGE(G72:M72,3),0)+IFERROR(LARGE(G72:M72,4),0)+IFERROR(LARGE(G72:M72,5),0))</f>
         <v>100.8</v>
       </c>
       <c r="V72" s="11">
@@ -26792,42 +22970,6 @@
       <c r="M92" s="5"/>
       <c r="U92" s="10"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U93" s="10"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U94" s="10"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U95" s="10"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U96" s="10"/>
-    </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U97" s="10"/>
-    </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U98" s="10"/>
-    </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U99" s="10"/>
-    </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U100" s="10"/>
-    </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U101" s="10"/>
-    </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U102" s="10"/>
-    </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U103" s="10"/>
-    </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U104" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
@@ -26842,7 +22984,7 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A2:O104"/>
+  <dimension ref="A2:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26863,11 +23005,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
+      <c r="A2" s="18" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44323</v>
@@ -28922,7 +25064,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="10" t="str">
-        <f t="shared" ref="N71:N104" si="11">IF(COUNTA(G71:I71)=0,"",IFERROR(LARGE(G71:I71,1),0)+IFERROR(LARGE(G71:I71,2),0)+IFERROR(LARGE(G71:I71,3),0)+IFERROR(LARGE(G71:I71,4),0)+IFERROR(LARGE(G71:I71,5),0))</f>
+        <f t="shared" ref="N71:N76" si="11">IF(COUNTA(G71:I71)=0,"",IFERROR(LARGE(G71:I71,1),0)+IFERROR(LARGE(G71:I71,2),0)+IFERROR(LARGE(G71:I71,3),0)+IFERROR(LARGE(G71:I71,4),0)+IFERROR(LARGE(G71:I71,5),0))</f>
         <v/>
       </c>
       <c r="O71" s="11"/>
@@ -29066,174 +25208,6 @@
       </c>
       <c r="O76" s="10"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N77" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N78" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N79" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N80" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N81" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N82" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N83" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N84" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N85" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N86" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N87" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N88" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N89" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N90" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N91" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N92" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N93" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N94" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N95" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N96" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N97" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N98" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N99" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N100" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N101" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N102" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N103" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N104" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
@@ -29248,7 +25222,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:O104"/>
+  <dimension ref="A2:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29269,11 +25243,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
+      <c r="A2" s="18" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44323</v>
@@ -31397,7 +27371,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="10">
-        <f t="shared" ref="N72:N104" si="11">IF(COUNTA(F72:I72)=0,"",IFERROR(LARGE(F72:I72,1),0)+IFERROR(LARGE(F72:I72,2),0)+IFERROR(LARGE(F72:I72,3),0)+IFERROR(LARGE(F72:I72,4),0)+IFERROR(LARGE(F72:I72,5),0))</f>
+        <f t="shared" ref="N72:N86" si="11">IF(COUNTA(F72:I72)=0,"",IFERROR(LARGE(F72:I72,1),0)+IFERROR(LARGE(F72:I72,2),0)+IFERROR(LARGE(F72:I72,3),0)+IFERROR(LARGE(F72:I72,4),0)+IFERROR(LARGE(F72:I72,5),0))</f>
         <v>66</v>
       </c>
       <c r="O72" s="11">
@@ -31810,114 +27784,6 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N87" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N88" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N89" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N90" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N91" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N92" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N93" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N94" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N95" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N96" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N97" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N98" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N99" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N100" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N101" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N102" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N103" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N104" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>

--- a/2021/FSARankings2021DisplayV2.xlsx
+++ b/2021/FSARankings2021DisplayV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.thomas\Dropbox\Competitions\2021\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624D7597-AA89-40AD-844E-7B1DFE1CD6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E1961E-DA48-4C4E-88CF-C74792D88DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16980" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{2F090B5A-58A0-4679-AF74-9DED37E728B1}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -822,4931 +822,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1650">
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="660">
     <dxf>
       <numFmt numFmtId="167" formatCode="0.0"/>
     </dxf>
@@ -9037,7 +4123,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rob Thomas" refreshedDate="44333.370256712966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="515" xr:uid="{316739D0-5A1B-4D88-BCC0-BF22C1D2B14E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rob Thomas" refreshedDate="44333.415975231481" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="518" xr:uid="{316739D0-5A1B-4D88-BCC0-BF22C1D2B14E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1" r:id="rId2"/>
   </cacheSource>
@@ -9440,7 +4526,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="515">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="518">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -18196,11 +13282,62 @@
     <x v="3"/>
     <n v="14.4"/>
   </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="94"/>
+    <x v="16"/>
+    <x v="14"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="16"/>
+    <x v="14"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C807EE97-4FCD-47D4-8DB6-23B875D86351}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C807EE97-4FCD-47D4-8DB6-23B875D86351}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:M92" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -19020,7 +14157,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="1649">
+    <format dxfId="659">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -19029,26 +14166,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1648">
+    <format dxfId="658">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1647">
+    <format dxfId="657">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1646">
+    <format dxfId="656">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1645">
+    <format dxfId="655">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1644">
+    <format dxfId="654">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1643">
+    <format dxfId="653">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -19056,7 +14193,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1642">
+    <format dxfId="652">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -19067,7 +14204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1641">
+    <format dxfId="651">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -19085,7 +14222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1640">
+    <format dxfId="650">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -19115,7 +14252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1639">
+    <format dxfId="649">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -19140,7 +14277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1638">
+    <format dxfId="648">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -19162,7 +14299,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1637">
+    <format dxfId="647">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -19183,7 +14320,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1636">
+    <format dxfId="646">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -19202,7 +14339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1635">
+    <format dxfId="645">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -19218,7 +14355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1634">
+    <format dxfId="644">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -19235,7 +14372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1633">
+    <format dxfId="643">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -19259,7 +14396,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1632">
+    <format dxfId="642">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -19282,7 +14419,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1631">
+    <format dxfId="641">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -19303,7 +14440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1630">
+    <format dxfId="640">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -19320,7 +14457,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1629">
+    <format dxfId="639">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -19340,7 +14477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1628">
+    <format dxfId="638">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -19360,7 +14497,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1627">
+    <format dxfId="637">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -19379,7 +14516,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1626">
+    <format dxfId="636">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19398,7 +14535,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1625">
+    <format dxfId="635">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19417,7 +14554,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1624">
+    <format dxfId="634">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19436,7 +14573,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1623">
+    <format dxfId="633">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19455,7 +14592,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1622">
+    <format dxfId="632">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19474,7 +14611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1621">
+    <format dxfId="631">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19493,7 +14630,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1620">
+    <format dxfId="630">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19512,7 +14649,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1619">
+    <format dxfId="629">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19531,7 +14668,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1618">
+    <format dxfId="628">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19550,7 +14687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1617">
+    <format dxfId="627">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19569,7 +14706,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1616">
+    <format dxfId="626">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19588,7 +14725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1615">
+    <format dxfId="625">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19607,7 +14744,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1614">
+    <format dxfId="624">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19626,7 +14763,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1613">
+    <format dxfId="623">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19645,7 +14782,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1612">
+    <format dxfId="622">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19664,7 +14801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1611">
+    <format dxfId="621">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19683,7 +14820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1610">
+    <format dxfId="620">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19702,7 +14839,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1609">
+    <format dxfId="619">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19721,7 +14858,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1608">
+    <format dxfId="618">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19740,7 +14877,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1607">
+    <format dxfId="617">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19759,7 +14896,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1606">
+    <format dxfId="616">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19778,7 +14915,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1605">
+    <format dxfId="615">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19797,7 +14934,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1604">
+    <format dxfId="614">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19816,7 +14953,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1603">
+    <format dxfId="613">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19835,7 +14972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1602">
+    <format dxfId="612">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19854,7 +14991,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1601">
+    <format dxfId="611">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19873,7 +15010,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1600">
+    <format dxfId="610">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -19893,7 +15030,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1599">
+    <format dxfId="609">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19912,7 +15049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1598">
+    <format dxfId="608">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19931,7 +15068,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1597">
+    <format dxfId="607">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19950,7 +15087,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1596">
+    <format dxfId="606">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19969,7 +15106,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1595">
+    <format dxfId="605">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -19988,7 +15125,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1594">
+    <format dxfId="604">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20007,7 +15144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1593">
+    <format dxfId="603">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20026,7 +15163,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1592">
+    <format dxfId="602">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20045,7 +15182,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1591">
+    <format dxfId="601">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20064,7 +15201,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1590">
+    <format dxfId="600">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20083,7 +15220,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1589">
+    <format dxfId="599">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20102,7 +15239,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1588">
+    <format dxfId="598">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20121,7 +15258,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1587">
+    <format dxfId="597">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20140,7 +15277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1586">
+    <format dxfId="596">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20159,7 +15296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1585">
+    <format dxfId="595">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20178,7 +15315,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1584">
+    <format dxfId="594">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20197,7 +15334,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1583">
+    <format dxfId="593">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20216,7 +15353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1582">
+    <format dxfId="592">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20235,7 +15372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1581">
+    <format dxfId="591">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20254,7 +15391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1580">
+    <format dxfId="590">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20273,7 +15410,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1579">
+    <format dxfId="589">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20292,7 +15429,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1578">
+    <format dxfId="588">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20311,7 +15448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1577">
+    <format dxfId="587">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20330,7 +15467,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1576">
+    <format dxfId="586">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20349,7 +15486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1575">
+    <format dxfId="585">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20368,7 +15505,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1574">
+    <format dxfId="584">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20387,7 +15524,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1573">
+    <format dxfId="583">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20406,7 +15543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1572">
+    <format dxfId="582">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20425,7 +15562,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1571">
+    <format dxfId="581">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20444,7 +15581,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1570">
+    <format dxfId="580">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20463,7 +15600,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1569">
+    <format dxfId="579">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20482,7 +15619,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1568">
+    <format dxfId="578">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20501,7 +15638,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1567">
+    <format dxfId="577">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20520,7 +15657,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1566">
+    <format dxfId="576">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20539,7 +15676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1565">
+    <format dxfId="575">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20558,7 +15695,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1564">
+    <format dxfId="574">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20577,7 +15714,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1563">
+    <format dxfId="573">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20596,7 +15733,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1562">
+    <format dxfId="572">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20615,7 +15752,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1561">
+    <format dxfId="571">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20634,7 +15771,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1560">
+    <format dxfId="570">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20653,7 +15790,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1559">
+    <format dxfId="569">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20672,7 +15809,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1558">
+    <format dxfId="568">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20691,7 +15828,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1557">
+    <format dxfId="567">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20710,7 +15847,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1556">
+    <format dxfId="566">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20729,7 +15866,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1555">
+    <format dxfId="565">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20748,7 +15885,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1554">
+    <format dxfId="564">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20767,7 +15904,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1553">
+    <format dxfId="563">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20786,7 +15923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1552">
+    <format dxfId="562">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20805,7 +15942,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1551">
+    <format dxfId="561">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20824,7 +15961,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1550">
+    <format dxfId="560">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20843,7 +15980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1549">
+    <format dxfId="559">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20862,7 +15999,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1548">
+    <format dxfId="558">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20881,7 +16018,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1547">
+    <format dxfId="557">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20900,7 +16037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1546">
+    <format dxfId="556">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20919,7 +16056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1545">
+    <format dxfId="555">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20938,7 +16075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1544">
+    <format dxfId="554">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20957,7 +16094,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1543">
+    <format dxfId="553">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -20976,17 +16113,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1542">
+    <format dxfId="552">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1541">
+    <format dxfId="551">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1540">
+    <format dxfId="550">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21020,7 +16157,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204240A0-B4DA-427F-9AD7-7A43D8A75C6A}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{204240A0-B4DA-427F-9AD7-7A43D8A75C6A}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:I76" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -21739,7 +16876,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="1539">
+    <format dxfId="549">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21748,26 +16885,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1538">
+    <format dxfId="548">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1537">
+    <format dxfId="547">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1536">
+    <format dxfId="546">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1535">
+    <format dxfId="545">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1534">
+    <format dxfId="544">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1533">
+    <format dxfId="543">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -21775,7 +16912,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1532">
+    <format dxfId="542">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -21786,7 +16923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1531">
+    <format dxfId="541">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -21804,7 +16941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1530">
+    <format dxfId="540">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -21834,7 +16971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1529">
+    <format dxfId="539">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -21859,7 +16996,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1528">
+    <format dxfId="538">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -21881,7 +17018,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1527">
+    <format dxfId="537">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -21902,7 +17039,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1526">
+    <format dxfId="536">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -21921,7 +17058,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1525">
+    <format dxfId="535">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -21937,7 +17074,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1524">
+    <format dxfId="534">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -21954,7 +17091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1523">
+    <format dxfId="533">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -21978,7 +17115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1522">
+    <format dxfId="532">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -22001,7 +17138,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1521">
+    <format dxfId="531">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -22022,7 +17159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1520">
+    <format dxfId="530">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -22039,7 +17176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1519">
+    <format dxfId="529">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -22059,7 +17196,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1518">
+    <format dxfId="528">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -22079,7 +17216,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1517">
+    <format dxfId="527">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -22098,7 +17235,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1516">
+    <format dxfId="526">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22117,7 +17254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1515">
+    <format dxfId="525">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22136,7 +17273,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1514">
+    <format dxfId="524">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22155,7 +17292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1513">
+    <format dxfId="523">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22174,7 +17311,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1512">
+    <format dxfId="522">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22193,7 +17330,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1511">
+    <format dxfId="521">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22212,7 +17349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1510">
+    <format dxfId="520">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22231,7 +17368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1509">
+    <format dxfId="519">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22250,7 +17387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1508">
+    <format dxfId="518">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22269,7 +17406,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1507">
+    <format dxfId="517">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22288,7 +17425,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1506">
+    <format dxfId="516">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22307,7 +17444,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1505">
+    <format dxfId="515">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22326,7 +17463,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1504">
+    <format dxfId="514">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22345,7 +17482,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1503">
+    <format dxfId="513">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22364,7 +17501,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1502">
+    <format dxfId="512">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22383,7 +17520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1501">
+    <format dxfId="511">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22402,7 +17539,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1500">
+    <format dxfId="510">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22421,7 +17558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1499">
+    <format dxfId="509">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22440,7 +17577,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1498">
+    <format dxfId="508">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22459,7 +17596,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1497">
+    <format dxfId="507">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22478,7 +17615,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1496">
+    <format dxfId="506">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22497,7 +17634,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1495">
+    <format dxfId="505">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22516,7 +17653,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1494">
+    <format dxfId="504">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22535,7 +17672,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1493">
+    <format dxfId="503">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22554,7 +17691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1492">
+    <format dxfId="502">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22573,7 +17710,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1491">
+    <format dxfId="501">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22592,7 +17729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1490">
+    <format dxfId="500">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -22612,7 +17749,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1489">
+    <format dxfId="499">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22631,7 +17768,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1488">
+    <format dxfId="498">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22650,7 +17787,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1487">
+    <format dxfId="497">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22669,7 +17806,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1486">
+    <format dxfId="496">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22688,7 +17825,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1485">
+    <format dxfId="495">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22707,7 +17844,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1484">
+    <format dxfId="494">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22726,7 +17863,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1483">
+    <format dxfId="493">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22745,7 +17882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1482">
+    <format dxfId="492">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22764,7 +17901,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1481">
+    <format dxfId="491">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22783,7 +17920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1480">
+    <format dxfId="490">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22802,7 +17939,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1479">
+    <format dxfId="489">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22821,7 +17958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1478">
+    <format dxfId="488">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22840,7 +17977,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1477">
+    <format dxfId="487">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22859,7 +17996,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1476">
+    <format dxfId="486">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22878,7 +18015,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1475">
+    <format dxfId="485">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22897,7 +18034,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1474">
+    <format dxfId="484">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22916,7 +18053,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1473">
+    <format dxfId="483">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22935,7 +18072,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1472">
+    <format dxfId="482">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22954,7 +18091,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1471">
+    <format dxfId="481">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22973,7 +18110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1470">
+    <format dxfId="480">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -22992,7 +18129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1469">
+    <format dxfId="479">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23011,7 +18148,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1468">
+    <format dxfId="478">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23030,7 +18167,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1467">
+    <format dxfId="477">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23049,7 +18186,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1466">
+    <format dxfId="476">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23068,7 +18205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1465">
+    <format dxfId="475">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23087,7 +18224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1464">
+    <format dxfId="474">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23106,7 +18243,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1463">
+    <format dxfId="473">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23125,7 +18262,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1462">
+    <format dxfId="472">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23144,7 +18281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1461">
+    <format dxfId="471">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23163,7 +18300,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1460">
+    <format dxfId="470">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23182,7 +18319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1459">
+    <format dxfId="469">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23201,7 +18338,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1458">
+    <format dxfId="468">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23220,7 +18357,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1457">
+    <format dxfId="467">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23239,7 +18376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1456">
+    <format dxfId="466">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23258,7 +18395,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1455">
+    <format dxfId="465">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23277,7 +18414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1454">
+    <format dxfId="464">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23296,7 +18433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1453">
+    <format dxfId="463">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23315,7 +18452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1452">
+    <format dxfId="462">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23334,7 +18471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1451">
+    <format dxfId="461">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23353,7 +18490,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1450">
+    <format dxfId="460">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23372,7 +18509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1449">
+    <format dxfId="459">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23391,7 +18528,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1448">
+    <format dxfId="458">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23410,7 +18547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1447">
+    <format dxfId="457">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23429,7 +18566,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1446">
+    <format dxfId="456">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23448,7 +18585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1445">
+    <format dxfId="455">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23467,7 +18604,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1444">
+    <format dxfId="454">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23486,7 +18623,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1443">
+    <format dxfId="453">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23505,7 +18642,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1442">
+    <format dxfId="452">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23524,7 +18661,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1441">
+    <format dxfId="451">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23543,7 +18680,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1440">
+    <format dxfId="450">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23562,7 +18699,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1439">
+    <format dxfId="449">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23581,7 +18718,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1438">
+    <format dxfId="448">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23600,7 +18737,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1437">
+    <format dxfId="447">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23619,7 +18756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1436">
+    <format dxfId="446">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23638,7 +18775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1435">
+    <format dxfId="445">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23657,7 +18794,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1434">
+    <format dxfId="444">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23676,7 +18813,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1433">
+    <format dxfId="443">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -23695,17 +18832,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1432">
+    <format dxfId="442">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1431">
+    <format dxfId="441">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1430">
+    <format dxfId="440">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -23739,7 +18876,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14087339-F950-44E8-9D3E-B46B04971F74}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14087339-F950-44E8-9D3E-B46B04971F74}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:J99" firstHeaderRow="1" firstDataRow="4" firstDataCol="6"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -24584,7 +19721,7 @@
     <dataField name="Ranking Points" fld="14" baseField="0" baseItem="26" numFmtId="167"/>
   </dataFields>
   <formats count="110">
-    <format dxfId="1429">
+    <format dxfId="439">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -24593,26 +19730,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1428">
+    <format dxfId="438">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1427">
+    <format dxfId="437">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1426">
+    <format dxfId="436">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1425">
+    <format dxfId="435">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1424">
+    <format dxfId="434">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1423">
+    <format dxfId="433">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="8" count="0" selected="0"/>
@@ -24620,7 +19757,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1422">
+    <format dxfId="432">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="0"/>
@@ -24631,7 +19768,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1421">
+    <format dxfId="431">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="7" count="6">
@@ -24649,7 +19786,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1420">
+    <format dxfId="430">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="15">
@@ -24679,7 +19816,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1419">
+    <format dxfId="429">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="10">
@@ -24704,7 +19841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1418">
+    <format dxfId="428">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="7">
@@ -24726,7 +19863,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1417">
+    <format dxfId="427">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -24747,7 +19884,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1416">
+    <format dxfId="426">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -24766,7 +19903,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1415">
+    <format dxfId="425">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="1">
@@ -24782,7 +19919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1414">
+    <format dxfId="424">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -24799,7 +19936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1413">
+    <format dxfId="423">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="9">
@@ -24823,7 +19960,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1412">
+    <format dxfId="422">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="8">
@@ -24846,7 +19983,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1411">
+    <format dxfId="421">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="6">
@@ -24867,7 +20004,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1410">
+    <format dxfId="420">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="2">
@@ -24884,7 +20021,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1409">
+    <format dxfId="419">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -24904,7 +20041,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1408">
+    <format dxfId="418">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="5">
@@ -24924,7 +20061,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1407">
+    <format dxfId="417">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="1" count="4">
@@ -24943,7 +20080,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1406">
+    <format dxfId="416">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -24962,7 +20099,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1405">
+    <format dxfId="415">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -24981,7 +20118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1404">
+    <format dxfId="414">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25000,7 +20137,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1403">
+    <format dxfId="413">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25019,7 +20156,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1402">
+    <format dxfId="412">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25038,7 +20175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1401">
+    <format dxfId="411">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25057,7 +20194,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1400">
+    <format dxfId="410">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25076,7 +20213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1399">
+    <format dxfId="409">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25095,7 +20232,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1398">
+    <format dxfId="408">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25114,7 +20251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1397">
+    <format dxfId="407">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25133,7 +20270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1396">
+    <format dxfId="406">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25152,7 +20289,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1395">
+    <format dxfId="405">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25171,7 +20308,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1394">
+    <format dxfId="404">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25190,7 +20327,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1393">
+    <format dxfId="403">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25209,7 +20346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1392">
+    <format dxfId="402">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25228,7 +20365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1391">
+    <format dxfId="401">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25247,7 +20384,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1390">
+    <format dxfId="400">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25266,7 +20403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1389">
+    <format dxfId="399">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25285,7 +20422,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1388">
+    <format dxfId="398">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25304,7 +20441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1387">
+    <format dxfId="397">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25323,7 +20460,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1386">
+    <format dxfId="396">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25342,7 +20479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1385">
+    <format dxfId="395">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25361,7 +20498,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1384">
+    <format dxfId="394">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25380,7 +20517,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1383">
+    <format dxfId="393">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25399,7 +20536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1382">
+    <format dxfId="392">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25418,7 +20555,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1381">
+    <format dxfId="391">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25437,7 +20574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1380">
+    <format dxfId="390">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="2">
@@ -25457,7 +20594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1379">
+    <format dxfId="389">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25476,7 +20613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1378">
+    <format dxfId="388">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25495,7 +20632,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1377">
+    <format dxfId="387">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25514,7 +20651,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1376">
+    <format dxfId="386">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25533,7 +20670,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1375">
+    <format dxfId="385">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25552,7 +20689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1374">
+    <format dxfId="384">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25571,7 +20708,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1373">
+    <format dxfId="383">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25590,7 +20727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1372">
+    <format dxfId="382">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25609,7 +20746,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1371">
+    <format dxfId="381">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25628,7 +20765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1370">
+    <format dxfId="380">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25647,7 +20784,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1369">
+    <format dxfId="379">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25666,7 +20803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1368">
+    <format dxfId="378">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25685,7 +20822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1367">
+    <format dxfId="377">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25704,7 +20841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1366">
+    <format dxfId="376">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25723,7 +20860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1365">
+    <format dxfId="375">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25742,7 +20879,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1364">
+    <format dxfId="374">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25761,7 +20898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1363">
+    <format dxfId="373">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25780,7 +20917,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1362">
+    <format dxfId="372">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25799,7 +20936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1361">
+    <format dxfId="371">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25818,7 +20955,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1360">
+    <format dxfId="370">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25837,7 +20974,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1359">
+    <format dxfId="369">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25856,7 +20993,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1358">
+    <format dxfId="368">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25875,7 +21012,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1357">
+    <format dxfId="367">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25894,7 +21031,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1356">
+    <format dxfId="366">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25913,7 +21050,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1355">
+    <format dxfId="365">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25932,7 +21069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1354">
+    <format dxfId="364">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25951,7 +21088,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1353">
+    <format dxfId="363">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25970,7 +21107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1352">
+    <format dxfId="362">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -25989,7 +21126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1351">
+    <format dxfId="361">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26008,7 +21145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1350">
+    <format dxfId="360">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26027,7 +21164,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1349">
+    <format dxfId="359">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26046,7 +21183,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1348">
+    <format dxfId="358">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26065,7 +21202,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1347">
+    <format dxfId="357">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26084,7 +21221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1346">
+    <format dxfId="356">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26103,7 +21240,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1345">
+    <format dxfId="355">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26122,7 +21259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1344">
+    <format dxfId="354">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26141,7 +21278,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1343">
+    <format dxfId="353">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26160,7 +21297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1342">
+    <format dxfId="352">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26179,7 +21316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1341">
+    <format dxfId="351">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26198,7 +21335,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1340">
+    <format dxfId="350">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26217,7 +21354,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1339">
+    <format dxfId="349">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26236,7 +21373,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1338">
+    <format dxfId="348">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26255,7 +21392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1337">
+    <format dxfId="347">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26274,7 +21411,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1336">
+    <format dxfId="346">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26293,7 +21430,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1335">
+    <format dxfId="345">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26312,7 +21449,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1334">
+    <format dxfId="344">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26331,7 +21468,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1333">
+    <format dxfId="343">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26350,7 +21487,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1332">
+    <format dxfId="342">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26369,7 +21506,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1331">
+    <format dxfId="341">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26388,7 +21525,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1330">
+    <format dxfId="340">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26407,7 +21544,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1329">
+    <format dxfId="339">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26426,7 +21563,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1328">
+    <format dxfId="338">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26445,7 +21582,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1327">
+    <format dxfId="337">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26464,7 +21601,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1326">
+    <format dxfId="336">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26483,7 +21620,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1325">
+    <format dxfId="335">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26502,7 +21639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1324">
+    <format dxfId="334">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26521,7 +21658,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1323">
+    <format dxfId="333">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="5">
           <reference field="0" count="1">
@@ -26540,17 +21677,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1322">
+    <format dxfId="332">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1321">
+    <format dxfId="331">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1320">
+    <format dxfId="330">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -26905,11 +22042,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="19" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44333</v>
@@ -27038,8 +22175,8 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -30251,11 +25388,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="19" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44333</v>
@@ -30304,19 +25441,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="14">
         <v>44059</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>44129</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -30329,19 +25466,19 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -32489,11 +27626,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="19" t="str">
         <f>"Ranking values as at "</f>
         <v xml:space="preserve">Ranking values as at </v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1">
         <f ca="1">TODAY()</f>
         <v>44333</v>
@@ -33351,13 +28488,15 @@
         <v>19.2</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="10">
         <f t="shared" si="0"/>
-        <v>30.4</v>
+        <v>31.4</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" si="4"/>
@@ -33382,13 +28521,15 @@
       <c r="I32" s="5">
         <v>28</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O32" s="11">
         <f t="shared" si="4"/>
@@ -33532,13 +28673,15 @@
       <c r="I37" s="5">
         <v>16.8</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O37" s="11">
         <f>_xlfn.RANK.EQ(N37,$N$37:$N$41)</f>
@@ -34918,7 +30061,7 @@
         <v>73</v>
       </c>
       <c r="O81" s="11">
-        <f t="shared" ref="O81:O94" si="11">_xlfn.RANK.EQ(N81,$N$80:$N$92)</f>
+        <f t="shared" ref="O81:O92" si="11">_xlfn.RANK.EQ(N81,$N$80:$N$92)</f>
         <v>2</v>
       </c>
     </row>
